--- a/Prophets_Kings.xlsx
+++ b/Prophets_Kings.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\finge_000\Projects\Currier\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="7644"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="7644" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Timeline" sheetId="2" r:id="rId1"/>
     <sheet name="Condensed" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="80">
   <si>
     <t>Jeroboam I</t>
   </si>
@@ -260,6 +255,12 @@
   <si>
     <t>2Kgs17</t>
   </si>
+  <si>
+    <t>Jeremiah</t>
+  </si>
+  <si>
+    <t>Ezekiel</t>
+  </si>
 </sst>
 </file>
 
@@ -302,7 +303,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -310,11 +311,79 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -335,13 +404,31 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -692,7 +779,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -702,9 +789,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I867"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A300" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="F218" sqref="F218:G256"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A438" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="C463" sqref="C463:C482"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -716,9 +803,9 @@
     <col min="5" max="5" width="7.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.21875" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.77734375" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.21875" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="10"/>
+    <col min="8" max="8" width="9.77734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -739,1431 +826,1431 @@
       <c r="A2" s="1">
         <v>1050</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <f>A2-1</f>
         <v>1049</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A67" si="0">A3-1</f>
         <v>1048</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>1047</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>1046</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>1045</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>1044</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>1043</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>1042</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>1041</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>1040</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>1039</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>1038</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>1037</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>1036</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>1035</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>1034</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>1033</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
     </row>
     <row r="20" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>1032</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>1031</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
     </row>
     <row r="22" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>1030</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
     </row>
     <row r="23" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>1029</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
     </row>
     <row r="24" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>1028</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
     </row>
     <row r="25" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>1027</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
     </row>
     <row r="26" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>1026</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <f t="shared" si="0"/>
         <v>1025</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
     </row>
     <row r="28" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <f t="shared" si="0"/>
         <v>1024</v>
       </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
     </row>
     <row r="29" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <f t="shared" si="0"/>
         <v>1023</v>
       </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <f t="shared" si="0"/>
         <v>1022</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
     </row>
     <row r="31" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <f t="shared" si="0"/>
         <v>1021</v>
       </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <f t="shared" si="0"/>
         <v>1020</v>
       </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <f t="shared" si="0"/>
         <v>1019</v>
       </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
     </row>
     <row r="34" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <f t="shared" si="0"/>
         <v>1018</v>
       </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
     </row>
     <row r="35" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <f t="shared" si="0"/>
         <v>1017</v>
       </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
     </row>
     <row r="36" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <f t="shared" si="0"/>
         <v>1016</v>
       </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
     </row>
     <row r="37" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <f t="shared" si="0"/>
         <v>1015</v>
       </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
     </row>
     <row r="38" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <f t="shared" si="0"/>
         <v>1014</v>
       </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
     </row>
     <row r="39" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <f t="shared" si="0"/>
         <v>1013</v>
       </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
     </row>
     <row r="40" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <f t="shared" si="0"/>
         <v>1012</v>
       </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
     </row>
     <row r="41" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <f t="shared" si="0"/>
         <v>1011</v>
       </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <f t="shared" si="0"/>
         <v>1010</v>
       </c>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <f t="shared" si="0"/>
         <v>1009</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
     </row>
     <row r="44" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <f t="shared" si="0"/>
         <v>1008</v>
       </c>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
     </row>
     <row r="45" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <f t="shared" si="0"/>
         <v>1007</v>
       </c>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
     </row>
     <row r="46" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <f t="shared" si="0"/>
         <v>1006</v>
       </c>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
     </row>
     <row r="47" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <f t="shared" si="0"/>
         <v>1005</v>
       </c>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
     </row>
     <row r="48" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <f t="shared" si="0"/>
         <v>1004</v>
       </c>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
     </row>
     <row r="49" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <f t="shared" si="0"/>
         <v>1003</v>
       </c>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
     </row>
     <row r="50" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <f t="shared" si="0"/>
         <v>1002</v>
       </c>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
     </row>
     <row r="51" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <f t="shared" si="0"/>
         <v>1001</v>
       </c>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
     </row>
     <row r="52" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
     </row>
     <row r="53" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <f t="shared" si="0"/>
         <v>999</v>
       </c>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
     </row>
     <row r="54" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <f t="shared" si="0"/>
         <v>998</v>
       </c>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
     </row>
     <row r="55" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <f t="shared" si="0"/>
         <v>997</v>
       </c>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
     </row>
     <row r="56" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <f t="shared" si="0"/>
         <v>996</v>
       </c>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
     </row>
     <row r="57" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <f t="shared" si="0"/>
         <v>995</v>
       </c>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
     </row>
     <row r="58" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <f t="shared" si="0"/>
         <v>994</v>
       </c>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
     </row>
     <row r="59" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <f t="shared" si="0"/>
         <v>993</v>
       </c>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
     </row>
     <row r="60" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <f t="shared" si="0"/>
         <v>992</v>
       </c>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
     </row>
     <row r="61" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <f t="shared" si="0"/>
         <v>991</v>
       </c>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
     </row>
     <row r="62" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <f t="shared" si="0"/>
         <v>990</v>
       </c>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
     </row>
     <row r="63" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <f t="shared" si="0"/>
         <v>989</v>
       </c>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
     </row>
     <row r="64" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <f t="shared" si="0"/>
         <v>988</v>
       </c>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
     </row>
     <row r="65" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <f t="shared" si="0"/>
         <v>987</v>
       </c>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
     </row>
     <row r="66" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <f t="shared" si="0"/>
         <v>986</v>
       </c>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
     </row>
     <row r="67" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <f t="shared" si="0"/>
         <v>985</v>
       </c>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
     </row>
     <row r="68" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <f t="shared" ref="A68:A131" si="1">A67-1</f>
         <v>984</v>
       </c>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
     </row>
     <row r="69" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <f t="shared" si="1"/>
         <v>983</v>
       </c>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
     </row>
     <row r="70" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <f t="shared" si="1"/>
         <v>982</v>
       </c>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
     </row>
     <row r="71" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <f t="shared" si="1"/>
         <v>981</v>
       </c>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
     </row>
     <row r="72" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <f t="shared" si="1"/>
         <v>980</v>
       </c>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
     </row>
     <row r="73" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <f t="shared" si="1"/>
         <v>979</v>
       </c>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
     </row>
     <row r="74" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <f t="shared" si="1"/>
         <v>978</v>
       </c>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
     </row>
     <row r="75" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <f t="shared" si="1"/>
         <v>977</v>
       </c>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
     </row>
     <row r="76" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <f t="shared" si="1"/>
         <v>976</v>
       </c>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
     </row>
     <row r="77" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <f t="shared" si="1"/>
         <v>975</v>
       </c>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
     </row>
     <row r="78" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <f t="shared" si="1"/>
         <v>974</v>
       </c>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
     </row>
     <row r="79" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <f t="shared" si="1"/>
         <v>973</v>
       </c>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
     </row>
     <row r="80" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <f t="shared" si="1"/>
         <v>972</v>
       </c>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
     </row>
     <row r="81" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <f t="shared" si="1"/>
         <v>971</v>
       </c>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
     </row>
     <row r="82" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <f t="shared" si="1"/>
         <v>970</v>
       </c>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="8"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
     </row>
     <row r="83" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <f t="shared" si="1"/>
         <v>969</v>
       </c>
-      <c r="D83" s="8" t="s">
+      <c r="D83" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
     </row>
     <row r="84" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <f t="shared" si="1"/>
         <v>968</v>
       </c>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
     </row>
     <row r="85" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <f t="shared" si="1"/>
         <v>967</v>
       </c>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
     </row>
     <row r="86" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <f t="shared" si="1"/>
         <v>966</v>
       </c>
-      <c r="D86" s="8"/>
-      <c r="E86" s="8"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="8"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
     </row>
     <row r="87" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <f t="shared" si="1"/>
         <v>965</v>
       </c>
-      <c r="D87" s="8"/>
-      <c r="E87" s="8"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="8"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
     </row>
     <row r="88" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <f t="shared" si="1"/>
         <v>964</v>
       </c>
-      <c r="D88" s="8"/>
-      <c r="E88" s="8"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="8"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
     </row>
     <row r="89" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <f t="shared" si="1"/>
         <v>963</v>
       </c>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
     </row>
     <row r="90" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <f t="shared" si="1"/>
         <v>962</v>
       </c>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
     </row>
     <row r="91" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <f t="shared" si="1"/>
         <v>961</v>
       </c>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
     </row>
     <row r="92" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <f t="shared" si="1"/>
         <v>960</v>
       </c>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
     </row>
     <row r="93" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <f t="shared" si="1"/>
         <v>959</v>
       </c>
-      <c r="D93" s="8"/>
-      <c r="E93" s="8"/>
-      <c r="F93" s="8"/>
-      <c r="G93" s="8"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
     </row>
     <row r="94" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <f t="shared" si="1"/>
         <v>958</v>
       </c>
-      <c r="D94" s="8"/>
-      <c r="E94" s="8"/>
-      <c r="F94" s="8"/>
-      <c r="G94" s="8"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
     </row>
     <row r="95" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <f t="shared" si="1"/>
         <v>957</v>
       </c>
-      <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="8"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
     </row>
     <row r="96" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <f t="shared" si="1"/>
         <v>956</v>
       </c>
-      <c r="D96" s="8"/>
-      <c r="E96" s="8"/>
-      <c r="F96" s="8"/>
-      <c r="G96" s="8"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
     </row>
     <row r="97" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <f t="shared" si="1"/>
         <v>955</v>
       </c>
-      <c r="D97" s="8"/>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8"/>
-      <c r="G97" s="8"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
     </row>
     <row r="98" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <f t="shared" si="1"/>
         <v>954</v>
       </c>
-      <c r="D98" s="8"/>
-      <c r="E98" s="8"/>
-      <c r="F98" s="8"/>
-      <c r="G98" s="8"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
     </row>
     <row r="99" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <f t="shared" si="1"/>
         <v>953</v>
       </c>
-      <c r="D99" s="8"/>
-      <c r="E99" s="8"/>
-      <c r="F99" s="8"/>
-      <c r="G99" s="8"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
     </row>
     <row r="100" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <f t="shared" si="1"/>
         <v>952</v>
       </c>
-      <c r="D100" s="8"/>
-      <c r="E100" s="8"/>
-      <c r="F100" s="8"/>
-      <c r="G100" s="8"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
     </row>
     <row r="101" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <f t="shared" si="1"/>
         <v>951</v>
       </c>
-      <c r="D101" s="8"/>
-      <c r="E101" s="8"/>
-      <c r="F101" s="8"/>
-      <c r="G101" s="8"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
     </row>
     <row r="102" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <f t="shared" si="1"/>
         <v>950</v>
       </c>
-      <c r="D102" s="8"/>
-      <c r="E102" s="8"/>
-      <c r="F102" s="8"/>
-      <c r="G102" s="8"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
     </row>
     <row r="103" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <f t="shared" si="1"/>
         <v>949</v>
       </c>
-      <c r="D103" s="8"/>
-      <c r="E103" s="8"/>
-      <c r="F103" s="8"/>
-      <c r="G103" s="8"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="9"/>
     </row>
     <row r="104" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <f t="shared" si="1"/>
         <v>948</v>
       </c>
-      <c r="D104" s="8"/>
-      <c r="E104" s="8"/>
-      <c r="F104" s="8"/>
-      <c r="G104" s="8"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="9"/>
     </row>
     <row r="105" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <f t="shared" si="1"/>
         <v>947</v>
       </c>
-      <c r="D105" s="8"/>
-      <c r="E105" s="8"/>
-      <c r="F105" s="8"/>
-      <c r="G105" s="8"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="9"/>
     </row>
     <row r="106" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <f t="shared" si="1"/>
         <v>946</v>
       </c>
-      <c r="D106" s="8"/>
-      <c r="E106" s="8"/>
-      <c r="F106" s="8"/>
-      <c r="G106" s="8"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="9"/>
     </row>
     <row r="107" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <f t="shared" si="1"/>
         <v>945</v>
       </c>
-      <c r="D107" s="8"/>
-      <c r="E107" s="8"/>
-      <c r="F107" s="8"/>
-      <c r="G107" s="8"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="9"/>
     </row>
     <row r="108" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <f t="shared" si="1"/>
         <v>944</v>
       </c>
-      <c r="D108" s="8"/>
-      <c r="E108" s="8"/>
-      <c r="F108" s="8"/>
-      <c r="G108" s="8"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="9"/>
     </row>
     <row r="109" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <f t="shared" si="1"/>
         <v>943</v>
       </c>
-      <c r="D109" s="8"/>
-      <c r="E109" s="8"/>
-      <c r="F109" s="8"/>
-      <c r="G109" s="8"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="9"/>
     </row>
     <row r="110" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <f t="shared" si="1"/>
         <v>942</v>
       </c>
-      <c r="D110" s="8"/>
-      <c r="E110" s="8"/>
-      <c r="F110" s="8"/>
-      <c r="G110" s="8"/>
+      <c r="D110" s="9"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="9"/>
     </row>
     <row r="111" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <f t="shared" si="1"/>
         <v>941</v>
       </c>
-      <c r="D111" s="8"/>
-      <c r="E111" s="8"/>
-      <c r="F111" s="8"/>
-      <c r="G111" s="8"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="9"/>
     </row>
     <row r="112" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <f t="shared" si="1"/>
         <v>940</v>
       </c>
-      <c r="D112" s="8"/>
-      <c r="E112" s="8"/>
-      <c r="F112" s="8"/>
-      <c r="G112" s="8"/>
+      <c r="D112" s="9"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="9"/>
     </row>
     <row r="113" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <f t="shared" si="1"/>
         <v>939</v>
       </c>
-      <c r="D113" s="8"/>
-      <c r="E113" s="8"/>
-      <c r="F113" s="8"/>
-      <c r="G113" s="8"/>
+      <c r="D113" s="9"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="9"/>
     </row>
     <row r="114" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <f t="shared" si="1"/>
         <v>938</v>
       </c>
-      <c r="D114" s="8"/>
-      <c r="E114" s="8"/>
-      <c r="F114" s="8"/>
-      <c r="G114" s="8"/>
+      <c r="D114" s="9"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="9"/>
     </row>
     <row r="115" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <f t="shared" si="1"/>
         <v>937</v>
       </c>
-      <c r="D115" s="8"/>
-      <c r="E115" s="8"/>
-      <c r="F115" s="8"/>
-      <c r="G115" s="8"/>
+      <c r="D115" s="9"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="9"/>
     </row>
     <row r="116" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <f t="shared" si="1"/>
         <v>936</v>
       </c>
-      <c r="D116" s="8"/>
-      <c r="E116" s="8"/>
-      <c r="F116" s="8"/>
-      <c r="G116" s="8"/>
+      <c r="D116" s="9"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="9"/>
     </row>
     <row r="117" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <f t="shared" si="1"/>
         <v>935</v>
       </c>
-      <c r="D117" s="8"/>
-      <c r="E117" s="8"/>
-      <c r="F117" s="8"/>
-      <c r="G117" s="8"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="9"/>
     </row>
     <row r="118" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <f t="shared" si="1"/>
         <v>934</v>
       </c>
-      <c r="D118" s="8"/>
-      <c r="E118" s="8"/>
-      <c r="F118" s="8"/>
-      <c r="G118" s="8"/>
+      <c r="D118" s="9"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="9"/>
     </row>
     <row r="119" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <f t="shared" si="1"/>
         <v>933</v>
       </c>
-      <c r="D119" s="8"/>
-      <c r="E119" s="8"/>
-      <c r="F119" s="8"/>
-      <c r="G119" s="8"/>
+      <c r="D119" s="9"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="9"/>
     </row>
     <row r="120" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <f t="shared" si="1"/>
         <v>932</v>
       </c>
-      <c r="D120" s="8"/>
-      <c r="E120" s="8"/>
-      <c r="F120" s="8"/>
-      <c r="G120" s="8"/>
+      <c r="D120" s="9"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="9"/>
     </row>
     <row r="121" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <f t="shared" si="1"/>
         <v>931</v>
       </c>
-      <c r="D121" s="8"/>
-      <c r="E121" s="8"/>
-      <c r="F121" s="8"/>
-      <c r="G121" s="8"/>
+      <c r="D121" s="9"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="9"/>
+      <c r="G121" s="9"/>
     </row>
     <row r="122" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <f t="shared" si="1"/>
         <v>930</v>
       </c>
-      <c r="D122" s="8"/>
-      <c r="E122" s="8"/>
-      <c r="F122" s="8"/>
-      <c r="G122" s="8"/>
+      <c r="D122" s="9"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="9"/>
+      <c r="G122" s="9"/>
     </row>
     <row r="123" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <f t="shared" si="1"/>
         <v>929</v>
       </c>
-      <c r="D123" s="8" t="s">
+      <c r="D123" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E123" s="8"/>
-      <c r="F123" s="8" t="s">
+      <c r="E123" s="9"/>
+      <c r="F123" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G123" s="8"/>
+      <c r="G123" s="9"/>
     </row>
     <row r="124" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <f t="shared" si="1"/>
         <v>928</v>
       </c>
-      <c r="D124" s="8"/>
-      <c r="E124" s="8"/>
-      <c r="F124" s="8"/>
-      <c r="G124" s="8"/>
+      <c r="D124" s="9"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="9"/>
     </row>
     <row r="125" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <f t="shared" si="1"/>
         <v>927</v>
       </c>
-      <c r="D125" s="8"/>
-      <c r="E125" s="8"/>
-      <c r="F125" s="8"/>
-      <c r="G125" s="8"/>
+      <c r="D125" s="9"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="9"/>
+      <c r="G125" s="9"/>
     </row>
     <row r="126" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <f t="shared" si="1"/>
         <v>926</v>
       </c>
-      <c r="D126" s="8"/>
-      <c r="E126" s="8"/>
-      <c r="F126" s="8"/>
-      <c r="G126" s="8"/>
+      <c r="D126" s="9"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="9"/>
+      <c r="G126" s="9"/>
     </row>
     <row r="127" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <f t="shared" si="1"/>
         <v>925</v>
       </c>
-      <c r="D127" s="8"/>
-      <c r="E127" s="8"/>
-      <c r="F127" s="8"/>
-      <c r="G127" s="8"/>
+      <c r="D127" s="9"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="9"/>
+      <c r="G127" s="9"/>
     </row>
     <row r="128" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <f t="shared" si="1"/>
         <v>924</v>
       </c>
-      <c r="D128" s="8"/>
-      <c r="E128" s="8"/>
-      <c r="F128" s="8"/>
-      <c r="G128" s="8"/>
+      <c r="D128" s="9"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="9"/>
+      <c r="G128" s="9"/>
     </row>
     <row r="129" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <f t="shared" si="1"/>
         <v>923</v>
       </c>
-      <c r="D129" s="8"/>
-      <c r="E129" s="8"/>
-      <c r="F129" s="8"/>
-      <c r="G129" s="8"/>
+      <c r="D129" s="9"/>
+      <c r="E129" s="9"/>
+      <c r="F129" s="9"/>
+      <c r="G129" s="9"/>
     </row>
     <row r="130" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <f t="shared" si="1"/>
         <v>922</v>
       </c>
-      <c r="D130" s="8"/>
-      <c r="E130" s="8"/>
-      <c r="F130" s="8"/>
-      <c r="G130" s="8"/>
+      <c r="D130" s="9"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="9"/>
+      <c r="G130" s="9"/>
     </row>
     <row r="131" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <f t="shared" si="1"/>
         <v>921</v>
       </c>
-      <c r="D131" s="8"/>
-      <c r="E131" s="8"/>
-      <c r="F131" s="8"/>
-      <c r="G131" s="8"/>
+      <c r="D131" s="9"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="9"/>
+      <c r="G131" s="9"/>
     </row>
     <row r="132" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <f t="shared" ref="A132:A195" si="2">A131-1</f>
         <v>920</v>
       </c>
-      <c r="D132" s="8"/>
-      <c r="E132" s="8"/>
-      <c r="F132" s="8"/>
-      <c r="G132" s="8"/>
+      <c r="D132" s="9"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="9"/>
+      <c r="G132" s="9"/>
     </row>
     <row r="133" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <f t="shared" si="2"/>
         <v>919</v>
       </c>
-      <c r="D133" s="8"/>
-      <c r="E133" s="8"/>
-      <c r="F133" s="8"/>
-      <c r="G133" s="8"/>
+      <c r="D133" s="9"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="9"/>
+      <c r="G133" s="9"/>
     </row>
     <row r="134" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <f t="shared" si="2"/>
         <v>918</v>
       </c>
-      <c r="D134" s="8"/>
-      <c r="E134" s="8"/>
-      <c r="F134" s="8"/>
-      <c r="G134" s="8"/>
+      <c r="D134" s="9"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="9"/>
+      <c r="G134" s="9"/>
     </row>
     <row r="135" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <f t="shared" si="2"/>
         <v>917</v>
       </c>
-      <c r="D135" s="8"/>
-      <c r="E135" s="8"/>
-      <c r="F135" s="8"/>
-      <c r="G135" s="8"/>
+      <c r="D135" s="9"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="9"/>
+      <c r="G135" s="9"/>
     </row>
     <row r="136" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <f t="shared" si="2"/>
         <v>916</v>
       </c>
-      <c r="D136" s="8"/>
-      <c r="E136" s="8"/>
-      <c r="F136" s="8"/>
-      <c r="G136" s="8"/>
+      <c r="D136" s="9"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="9"/>
+      <c r="G136" s="9"/>
     </row>
     <row r="137" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <f t="shared" si="2"/>
         <v>915</v>
       </c>
-      <c r="D137" s="8"/>
-      <c r="E137" s="8"/>
-      <c r="F137" s="8"/>
-      <c r="G137" s="8"/>
+      <c r="D137" s="9"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="9"/>
+      <c r="G137" s="9"/>
     </row>
     <row r="138" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <f t="shared" si="2"/>
         <v>914</v>
       </c>
-      <c r="D138" s="8"/>
-      <c r="E138" s="8"/>
-      <c r="F138" s="8"/>
-      <c r="G138" s="8"/>
+      <c r="D138" s="9"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="9"/>
+      <c r="G138" s="9"/>
     </row>
     <row r="139" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <f t="shared" si="2"/>
         <v>913</v>
       </c>
-      <c r="D139" s="8"/>
-      <c r="E139" s="8"/>
-      <c r="F139" s="8"/>
-      <c r="G139" s="8"/>
+      <c r="D139" s="9"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="9"/>
+      <c r="G139" s="9"/>
     </row>
     <row r="140" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <f t="shared" si="2"/>
         <v>912</v>
       </c>
-      <c r="D140" s="8"/>
-      <c r="E140" s="8"/>
-      <c r="F140" s="8" t="s">
+      <c r="D140" s="9"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G140" s="8"/>
+      <c r="G140" s="9"/>
     </row>
     <row r="141" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <f t="shared" si="2"/>
         <v>911</v>
       </c>
-      <c r="D141" s="8"/>
-      <c r="E141" s="8"/>
-      <c r="F141" s="8"/>
-      <c r="G141" s="8"/>
+      <c r="D141" s="9"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="9"/>
+      <c r="G141" s="9"/>
     </row>
     <row r="142" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <f t="shared" si="2"/>
         <v>910</v>
       </c>
-      <c r="D142" s="8"/>
-      <c r="E142" s="8"/>
-      <c r="F142" s="8"/>
-      <c r="G142" s="8"/>
+      <c r="D142" s="9"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="9"/>
+      <c r="G142" s="9"/>
     </row>
     <row r="143" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <f t="shared" si="2"/>
         <v>909</v>
       </c>
-      <c r="D143" s="8"/>
-      <c r="E143" s="8"/>
-      <c r="F143" s="8" t="s">
+      <c r="D143" s="9"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="9" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2172,211 +2259,211 @@
         <f t="shared" si="2"/>
         <v>908</v>
       </c>
-      <c r="D144" s="8" t="s">
+      <c r="D144" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E144" s="8"/>
-      <c r="F144" s="8"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="9"/>
     </row>
     <row r="145" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <f t="shared" si="2"/>
         <v>907</v>
       </c>
-      <c r="D145" s="8" t="s">
+      <c r="D145" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E145" s="8"/>
-      <c r="F145" s="8"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="9"/>
     </row>
     <row r="146" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <f t="shared" si="2"/>
         <v>906</v>
       </c>
-      <c r="D146" s="8"/>
-      <c r="E146" s="8"/>
-      <c r="F146" s="8"/>
+      <c r="D146" s="9"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="9"/>
     </row>
     <row r="147" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <f t="shared" si="2"/>
         <v>905</v>
       </c>
-      <c r="D147" s="8"/>
-      <c r="E147" s="8"/>
-      <c r="F147" s="8"/>
+      <c r="D147" s="9"/>
+      <c r="E147" s="9"/>
+      <c r="F147" s="9"/>
     </row>
     <row r="148" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <f t="shared" si="2"/>
         <v>904</v>
       </c>
-      <c r="D148" s="8"/>
-      <c r="E148" s="8"/>
-      <c r="F148" s="8"/>
+      <c r="D148" s="9"/>
+      <c r="E148" s="9"/>
+      <c r="F148" s="9"/>
     </row>
     <row r="149" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <f t="shared" si="2"/>
         <v>903</v>
       </c>
-      <c r="D149" s="8"/>
-      <c r="E149" s="8"/>
-      <c r="F149" s="8"/>
+      <c r="D149" s="9"/>
+      <c r="E149" s="9"/>
+      <c r="F149" s="9"/>
     </row>
     <row r="150" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <f t="shared" si="2"/>
         <v>902</v>
       </c>
-      <c r="D150" s="8"/>
-      <c r="E150" s="8"/>
-      <c r="F150" s="8"/>
+      <c r="D150" s="9"/>
+      <c r="E150" s="9"/>
+      <c r="F150" s="9"/>
     </row>
     <row r="151" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <f t="shared" si="2"/>
         <v>901</v>
       </c>
-      <c r="D151" s="8"/>
-      <c r="E151" s="8"/>
-      <c r="F151" s="8"/>
+      <c r="D151" s="9"/>
+      <c r="E151" s="9"/>
+      <c r="F151" s="9"/>
     </row>
     <row r="152" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <f t="shared" si="2"/>
         <v>900</v>
       </c>
-      <c r="D152" s="8"/>
-      <c r="E152" s="8"/>
-      <c r="F152" s="8"/>
+      <c r="D152" s="9"/>
+      <c r="E152" s="9"/>
+      <c r="F152" s="9"/>
     </row>
     <row r="153" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <f t="shared" si="2"/>
         <v>899</v>
       </c>
-      <c r="D153" s="8"/>
-      <c r="E153" s="8"/>
-      <c r="F153" s="8"/>
+      <c r="D153" s="9"/>
+      <c r="E153" s="9"/>
+      <c r="F153" s="9"/>
     </row>
     <row r="154" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <f t="shared" si="2"/>
         <v>898</v>
       </c>
-      <c r="D154" s="8"/>
-      <c r="E154" s="8"/>
-      <c r="F154" s="8"/>
+      <c r="D154" s="9"/>
+      <c r="E154" s="9"/>
+      <c r="F154" s="9"/>
     </row>
     <row r="155" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <f t="shared" si="2"/>
         <v>897</v>
       </c>
-      <c r="D155" s="8"/>
-      <c r="E155" s="8"/>
-      <c r="F155" s="8"/>
+      <c r="D155" s="9"/>
+      <c r="E155" s="9"/>
+      <c r="F155" s="9"/>
     </row>
     <row r="156" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <f t="shared" si="2"/>
         <v>896</v>
       </c>
-      <c r="D156" s="8"/>
-      <c r="E156" s="8"/>
-      <c r="F156" s="8"/>
+      <c r="D156" s="9"/>
+      <c r="E156" s="9"/>
+      <c r="F156" s="9"/>
     </row>
     <row r="157" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <f t="shared" si="2"/>
         <v>895</v>
       </c>
-      <c r="D157" s="8"/>
-      <c r="E157" s="8"/>
-      <c r="F157" s="8"/>
+      <c r="D157" s="9"/>
+      <c r="E157" s="9"/>
+      <c r="F157" s="9"/>
     </row>
     <row r="158" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <f t="shared" si="2"/>
         <v>894</v>
       </c>
-      <c r="D158" s="8"/>
-      <c r="E158" s="8"/>
-      <c r="F158" s="8"/>
+      <c r="D158" s="9"/>
+      <c r="E158" s="9"/>
+      <c r="F158" s="9"/>
     </row>
     <row r="159" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <f t="shared" si="2"/>
         <v>893</v>
       </c>
-      <c r="D159" s="8"/>
-      <c r="E159" s="8"/>
-      <c r="F159" s="8"/>
+      <c r="D159" s="9"/>
+      <c r="E159" s="9"/>
+      <c r="F159" s="9"/>
     </row>
     <row r="160" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <f t="shared" si="2"/>
         <v>892</v>
       </c>
-      <c r="D160" s="8"/>
-      <c r="E160" s="8"/>
-      <c r="F160" s="8"/>
+      <c r="D160" s="9"/>
+      <c r="E160" s="9"/>
+      <c r="F160" s="9"/>
     </row>
     <row r="161" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <f t="shared" si="2"/>
         <v>891</v>
       </c>
-      <c r="D161" s="8"/>
-      <c r="E161" s="8"/>
-      <c r="F161" s="8"/>
+      <c r="D161" s="9"/>
+      <c r="E161" s="9"/>
+      <c r="F161" s="9"/>
     </row>
     <row r="162" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <f t="shared" si="2"/>
         <v>890</v>
       </c>
-      <c r="D162" s="8"/>
-      <c r="E162" s="8"/>
-      <c r="F162" s="8"/>
+      <c r="D162" s="9"/>
+      <c r="E162" s="9"/>
+      <c r="F162" s="9"/>
     </row>
     <row r="163" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <f t="shared" si="2"/>
         <v>889</v>
       </c>
-      <c r="D163" s="8"/>
-      <c r="E163" s="8"/>
-      <c r="F163" s="8"/>
+      <c r="D163" s="9"/>
+      <c r="E163" s="9"/>
+      <c r="F163" s="9"/>
     </row>
     <row r="164" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <f t="shared" si="2"/>
         <v>888</v>
       </c>
-      <c r="D164" s="8"/>
-      <c r="E164" s="8"/>
-      <c r="F164" s="8"/>
+      <c r="D164" s="9"/>
+      <c r="E164" s="9"/>
+      <c r="F164" s="9"/>
     </row>
     <row r="165" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <f t="shared" si="2"/>
         <v>887</v>
       </c>
-      <c r="D165" s="8"/>
-      <c r="E165" s="8"/>
-      <c r="F165" s="8"/>
+      <c r="D165" s="9"/>
+      <c r="E165" s="9"/>
+      <c r="F165" s="9"/>
     </row>
     <row r="166" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <f t="shared" si="2"/>
         <v>886</v>
       </c>
-      <c r="D166" s="8"/>
-      <c r="E166" s="8"/>
-      <c r="F166" s="8"/>
+      <c r="D166" s="9"/>
+      <c r="E166" s="9"/>
+      <c r="F166" s="9"/>
     </row>
     <row r="167" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
@@ -2389,134 +2476,134 @@
       <c r="E167" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F167" s="8"/>
+      <c r="F167" s="9"/>
     </row>
     <row r="168" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <f t="shared" si="2"/>
         <v>884</v>
       </c>
-      <c r="D168" s="8" t="s">
+      <c r="D168" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E168" s="8" t="s">
+      <c r="E168" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F168" s="8"/>
+      <c r="F168" s="9"/>
     </row>
     <row r="169" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <f t="shared" si="2"/>
         <v>883</v>
       </c>
-      <c r="D169" s="8"/>
-      <c r="E169" s="8"/>
-      <c r="F169" s="8"/>
+      <c r="D169" s="9"/>
+      <c r="E169" s="9"/>
+      <c r="F169" s="9"/>
     </row>
     <row r="170" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <f t="shared" si="2"/>
         <v>882</v>
       </c>
-      <c r="D170" s="8"/>
-      <c r="E170" s="8"/>
-      <c r="F170" s="8"/>
+      <c r="D170" s="9"/>
+      <c r="E170" s="9"/>
+      <c r="F170" s="9"/>
     </row>
     <row r="171" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <f t="shared" si="2"/>
         <v>881</v>
       </c>
-      <c r="D171" s="8"/>
-      <c r="E171" s="8"/>
-      <c r="F171" s="8"/>
+      <c r="D171" s="9"/>
+      <c r="E171" s="9"/>
+      <c r="F171" s="9"/>
     </row>
     <row r="172" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <f t="shared" si="2"/>
         <v>880</v>
       </c>
-      <c r="D172" s="8"/>
-      <c r="E172" s="8"/>
-      <c r="F172" s="8"/>
+      <c r="D172" s="9"/>
+      <c r="E172" s="9"/>
+      <c r="F172" s="9"/>
     </row>
     <row r="173" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <f t="shared" si="2"/>
         <v>879</v>
       </c>
-      <c r="E173" s="8"/>
-      <c r="F173" s="8"/>
+      <c r="E173" s="9"/>
+      <c r="F173" s="9"/>
     </row>
     <row r="174" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <f t="shared" si="2"/>
         <v>878</v>
       </c>
-      <c r="E174" s="8"/>
-      <c r="F174" s="8"/>
+      <c r="E174" s="9"/>
+      <c r="F174" s="9"/>
     </row>
     <row r="175" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <f t="shared" si="2"/>
         <v>877</v>
       </c>
-      <c r="E175" s="8"/>
-      <c r="F175" s="8"/>
+      <c r="E175" s="9"/>
+      <c r="F175" s="9"/>
     </row>
     <row r="176" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <f t="shared" si="2"/>
         <v>876</v>
       </c>
-      <c r="E176" s="8"/>
-      <c r="F176" s="8"/>
+      <c r="E176" s="9"/>
+      <c r="F176" s="9"/>
     </row>
     <row r="177" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <f t="shared" si="2"/>
         <v>875</v>
       </c>
-      <c r="E177" s="8"/>
-      <c r="F177" s="8"/>
+      <c r="E177" s="9"/>
+      <c r="F177" s="9"/>
     </row>
     <row r="178" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <f t="shared" si="2"/>
         <v>874</v>
       </c>
-      <c r="E178" s="8"/>
-      <c r="F178" s="8"/>
+      <c r="E178" s="9"/>
+      <c r="F178" s="9"/>
     </row>
     <row r="179" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <f t="shared" si="2"/>
         <v>873</v>
       </c>
-      <c r="D179" s="8" t="s">
+      <c r="D179" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E179" s="8"/>
-      <c r="F179" s="8"/>
+      <c r="E179" s="9"/>
+      <c r="F179" s="9"/>
     </row>
     <row r="180" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <f t="shared" si="2"/>
         <v>872</v>
       </c>
-      <c r="D180" s="8"/>
-      <c r="E180" s="8"/>
-      <c r="F180" s="8"/>
+      <c r="D180" s="9"/>
+      <c r="E180" s="9"/>
+      <c r="F180" s="9"/>
     </row>
     <row r="181" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <f t="shared" si="2"/>
         <v>871</v>
       </c>
-      <c r="D181" s="8"/>
-      <c r="E181" s="8"/>
-      <c r="F181" s="8"/>
-      <c r="G181" s="8" t="s">
+      <c r="D181" s="9"/>
+      <c r="E181" s="9"/>
+      <c r="F181" s="9"/>
+      <c r="G181" s="9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2525,283 +2612,283 @@
         <f t="shared" si="2"/>
         <v>870</v>
       </c>
-      <c r="D182" s="8"/>
-      <c r="E182" s="8"/>
-      <c r="F182" s="8"/>
-      <c r="G182" s="8"/>
+      <c r="D182" s="9"/>
+      <c r="E182" s="9"/>
+      <c r="F182" s="9"/>
+      <c r="G182" s="9"/>
     </row>
     <row r="183" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <f t="shared" si="2"/>
         <v>869</v>
       </c>
-      <c r="D183" s="8"/>
-      <c r="E183" s="8"/>
-      <c r="F183" s="8"/>
-      <c r="G183" s="8"/>
+      <c r="D183" s="9"/>
+      <c r="E183" s="9"/>
+      <c r="F183" s="9"/>
+      <c r="G183" s="9"/>
     </row>
     <row r="184" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <f t="shared" si="2"/>
         <v>868</v>
       </c>
-      <c r="D184" s="8"/>
-      <c r="E184" s="8"/>
-      <c r="G184" s="8"/>
+      <c r="D184" s="9"/>
+      <c r="E184" s="9"/>
+      <c r="G184" s="9"/>
     </row>
     <row r="185" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <f t="shared" si="2"/>
         <v>867</v>
       </c>
-      <c r="D185" s="8"/>
-      <c r="E185" s="8"/>
-      <c r="G185" s="8"/>
+      <c r="D185" s="9"/>
+      <c r="E185" s="9"/>
+      <c r="G185" s="9"/>
     </row>
     <row r="186" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <f t="shared" si="2"/>
         <v>866</v>
       </c>
-      <c r="D186" s="8"/>
-      <c r="E186" s="8"/>
-      <c r="G186" s="8"/>
+      <c r="D186" s="9"/>
+      <c r="E186" s="9"/>
+      <c r="G186" s="9"/>
     </row>
     <row r="187" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <f t="shared" si="2"/>
         <v>865</v>
       </c>
-      <c r="D187" s="8"/>
-      <c r="E187" s="8"/>
-      <c r="G187" s="8"/>
+      <c r="D187" s="9"/>
+      <c r="E187" s="9"/>
+      <c r="G187" s="9"/>
     </row>
     <row r="188" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <f t="shared" si="2"/>
         <v>864</v>
       </c>
-      <c r="D188" s="8"/>
-      <c r="E188" s="8"/>
-      <c r="G188" s="8"/>
+      <c r="D188" s="9"/>
+      <c r="E188" s="9"/>
+      <c r="G188" s="9"/>
     </row>
     <row r="189" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <f t="shared" si="2"/>
         <v>863</v>
       </c>
-      <c r="D189" s="8"/>
-      <c r="E189" s="8"/>
-      <c r="G189" s="8"/>
+      <c r="D189" s="9"/>
+      <c r="E189" s="9"/>
+      <c r="G189" s="9"/>
     </row>
     <row r="190" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <f t="shared" si="2"/>
         <v>862</v>
       </c>
-      <c r="D190" s="8"/>
-      <c r="E190" s="8"/>
-      <c r="G190" s="8"/>
+      <c r="D190" s="9"/>
+      <c r="E190" s="9"/>
+      <c r="G190" s="9"/>
     </row>
     <row r="191" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <f t="shared" si="2"/>
         <v>861</v>
       </c>
-      <c r="D191" s="8"/>
-      <c r="E191" s="8"/>
-      <c r="G191" s="8"/>
+      <c r="D191" s="9"/>
+      <c r="E191" s="9"/>
+      <c r="G191" s="9"/>
     </row>
     <row r="192" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <f t="shared" si="2"/>
         <v>860</v>
       </c>
-      <c r="D192" s="8"/>
-      <c r="E192" s="8"/>
-      <c r="G192" s="8"/>
+      <c r="D192" s="9"/>
+      <c r="E192" s="9"/>
+      <c r="G192" s="9"/>
     </row>
     <row r="193" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <f t="shared" si="2"/>
         <v>859</v>
       </c>
-      <c r="D193" s="8"/>
-      <c r="E193" s="8"/>
-      <c r="G193" s="8"/>
+      <c r="D193" s="9"/>
+      <c r="E193" s="9"/>
+      <c r="G193" s="9"/>
     </row>
     <row r="194" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <f t="shared" si="2"/>
         <v>858</v>
       </c>
-      <c r="D194" s="8"/>
-      <c r="E194" s="8"/>
-      <c r="G194" s="8"/>
+      <c r="D194" s="9"/>
+      <c r="E194" s="9"/>
+      <c r="G194" s="9"/>
     </row>
     <row r="195" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <f t="shared" si="2"/>
         <v>857</v>
       </c>
-      <c r="D195" s="8"/>
-      <c r="E195" s="8"/>
-      <c r="G195" s="8"/>
+      <c r="D195" s="9"/>
+      <c r="E195" s="9"/>
+      <c r="G195" s="9"/>
     </row>
     <row r="196" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <f t="shared" ref="A196:A259" si="3">A195-1</f>
         <v>856</v>
       </c>
-      <c r="D196" s="8"/>
-      <c r="E196" s="8"/>
-      <c r="G196" s="8"/>
+      <c r="D196" s="9"/>
+      <c r="E196" s="9"/>
+      <c r="G196" s="9"/>
     </row>
     <row r="197" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <f t="shared" si="3"/>
         <v>855</v>
       </c>
-      <c r="D197" s="8"/>
-      <c r="E197" s="8"/>
-      <c r="G197" s="8"/>
+      <c r="D197" s="9"/>
+      <c r="E197" s="9"/>
+      <c r="G197" s="9"/>
     </row>
     <row r="198" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <f t="shared" si="3"/>
         <v>854</v>
       </c>
-      <c r="D198" s="8"/>
-      <c r="E198" s="8"/>
-      <c r="G198" s="8"/>
+      <c r="D198" s="9"/>
+      <c r="E198" s="9"/>
+      <c r="G198" s="9"/>
     </row>
     <row r="199" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <f t="shared" si="3"/>
         <v>853</v>
       </c>
-      <c r="D199" s="8"/>
-      <c r="E199" s="8"/>
-      <c r="G199" s="8"/>
+      <c r="D199" s="9"/>
+      <c r="E199" s="9"/>
+      <c r="G199" s="9"/>
     </row>
     <row r="200" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <f t="shared" si="3"/>
         <v>852</v>
       </c>
-      <c r="D200" s="8" t="s">
+      <c r="D200" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E200" s="8"/>
-      <c r="F200" s="8" t="s">
+      <c r="E200" s="9"/>
+      <c r="F200" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G200" s="8"/>
+      <c r="G200" s="9"/>
     </row>
     <row r="201" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <f t="shared" si="3"/>
         <v>851</v>
       </c>
-      <c r="D201" s="8" t="s">
+      <c r="D201" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E201" s="8"/>
-      <c r="F201" s="8"/>
-      <c r="G201" s="8"/>
+      <c r="E201" s="9"/>
+      <c r="F201" s="9"/>
+      <c r="G201" s="9"/>
     </row>
     <row r="202" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <f t="shared" si="3"/>
         <v>850</v>
       </c>
-      <c r="D202" s="8"/>
-      <c r="E202" s="8"/>
-      <c r="F202" s="8"/>
-      <c r="G202" s="8"/>
+      <c r="D202" s="9"/>
+      <c r="E202" s="9"/>
+      <c r="F202" s="9"/>
+      <c r="G202" s="9"/>
     </row>
     <row r="203" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <f t="shared" si="3"/>
         <v>849</v>
       </c>
-      <c r="D203" s="8"/>
-      <c r="E203" s="8"/>
-      <c r="F203" s="8"/>
-      <c r="G203" s="8"/>
+      <c r="D203" s="9"/>
+      <c r="E203" s="9"/>
+      <c r="F203" s="9"/>
+      <c r="G203" s="9"/>
     </row>
     <row r="204" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <f t="shared" si="3"/>
         <v>848</v>
       </c>
-      <c r="D204" s="8"/>
-      <c r="E204" s="8"/>
-      <c r="F204" s="8"/>
-      <c r="G204" s="8"/>
+      <c r="D204" s="9"/>
+      <c r="E204" s="9"/>
+      <c r="F204" s="9"/>
+      <c r="G204" s="9"/>
     </row>
     <row r="205" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <f t="shared" si="3"/>
         <v>847</v>
       </c>
-      <c r="D205" s="8"/>
-      <c r="E205" s="8"/>
-      <c r="F205" s="8"/>
+      <c r="D205" s="9"/>
+      <c r="E205" s="9"/>
+      <c r="F205" s="9"/>
     </row>
     <row r="206" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <f t="shared" si="3"/>
         <v>846</v>
       </c>
-      <c r="D206" s="8"/>
-      <c r="E206" s="8"/>
-      <c r="F206" s="8"/>
+      <c r="D206" s="9"/>
+      <c r="E206" s="9"/>
+      <c r="F206" s="9"/>
     </row>
     <row r="207" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <f t="shared" si="3"/>
         <v>845</v>
       </c>
-      <c r="D207" s="8"/>
-      <c r="E207" s="8"/>
-      <c r="F207" s="8"/>
+      <c r="D207" s="9"/>
+      <c r="E207" s="9"/>
+      <c r="F207" s="9"/>
     </row>
     <row r="208" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <f t="shared" si="3"/>
         <v>844</v>
       </c>
-      <c r="D208" s="8"/>
-      <c r="E208" s="8"/>
-      <c r="F208" s="8"/>
+      <c r="D208" s="9"/>
+      <c r="E208" s="9"/>
+      <c r="F208" s="9"/>
     </row>
     <row r="209" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <f t="shared" si="3"/>
         <v>843</v>
       </c>
-      <c r="D209" s="8"/>
-      <c r="E209" s="8"/>
-      <c r="F209" s="8"/>
+      <c r="D209" s="9"/>
+      <c r="E209" s="9"/>
+      <c r="F209" s="9"/>
     </row>
     <row r="210" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <f t="shared" si="3"/>
         <v>842</v>
       </c>
-      <c r="D210" s="8"/>
-      <c r="E210" s="8"/>
-      <c r="F210" s="8"/>
+      <c r="D210" s="9"/>
+      <c r="E210" s="9"/>
+      <c r="F210" s="9"/>
     </row>
     <row r="211" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <f t="shared" si="3"/>
         <v>841</v>
       </c>
-      <c r="D211" s="8"/>
-      <c r="E211" s="8"/>
-      <c r="F211" s="8"/>
+      <c r="D211" s="9"/>
+      <c r="E211" s="9"/>
+      <c r="F211" s="9"/>
       <c r="G211" s="7" t="s">
         <v>6</v>
       </c>
@@ -2811,18 +2898,18 @@
         <f t="shared" si="3"/>
         <v>840</v>
       </c>
-      <c r="D212" s="8" t="s">
+      <c r="D212" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E212" s="8"/>
-      <c r="F212" s="8" t="s">
+      <c r="E212" s="9"/>
+      <c r="F212" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G212" s="8"/>
-      <c r="H212" s="10" t="s">
+      <c r="G212" s="9"/>
+      <c r="H212" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="I212" s="10" t="s">
+      <c r="I212" s="8" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2831,66 +2918,66 @@
         <f t="shared" si="3"/>
         <v>839</v>
       </c>
-      <c r="D213" s="8"/>
-      <c r="E213" s="8"/>
-      <c r="F213" s="8"/>
-      <c r="G213" s="8"/>
+      <c r="D213" s="9"/>
+      <c r="E213" s="9"/>
+      <c r="F213" s="9"/>
+      <c r="G213" s="9"/>
     </row>
     <row r="214" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <f t="shared" si="3"/>
         <v>838</v>
       </c>
-      <c r="D214" s="8"/>
-      <c r="E214" s="8"/>
-      <c r="F214" s="8"/>
-      <c r="G214" s="8"/>
+      <c r="D214" s="9"/>
+      <c r="E214" s="9"/>
+      <c r="F214" s="9"/>
+      <c r="G214" s="9"/>
     </row>
     <row r="215" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <f t="shared" si="3"/>
         <v>837</v>
       </c>
-      <c r="D215" s="8"/>
-      <c r="E215" s="8"/>
-      <c r="F215" s="8"/>
-      <c r="G215" s="8"/>
+      <c r="D215" s="9"/>
+      <c r="E215" s="9"/>
+      <c r="F215" s="9"/>
+      <c r="G215" s="9"/>
     </row>
     <row r="216" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <f t="shared" si="3"/>
         <v>836</v>
       </c>
-      <c r="D216" s="8"/>
-      <c r="E216" s="8"/>
-      <c r="F216" s="8"/>
-      <c r="G216" s="8"/>
+      <c r="D216" s="9"/>
+      <c r="E216" s="9"/>
+      <c r="F216" s="9"/>
+      <c r="G216" s="9"/>
     </row>
     <row r="217" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <f t="shared" si="3"/>
         <v>835</v>
       </c>
-      <c r="D217" s="8"/>
-      <c r="E217" s="8"/>
-      <c r="F217" s="8"/>
-      <c r="G217" s="8"/>
+      <c r="D217" s="9"/>
+      <c r="E217" s="9"/>
+      <c r="F217" s="9"/>
+      <c r="G217" s="9"/>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <f t="shared" si="3"/>
         <v>834</v>
       </c>
-      <c r="D218" s="8"/>
-      <c r="E218" s="8"/>
-      <c r="F218" s="8" t="s">
+      <c r="D218" s="9"/>
+      <c r="E218" s="9"/>
+      <c r="F218" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G218" s="8"/>
-      <c r="H218" s="10" t="s">
+      <c r="G218" s="9"/>
+      <c r="H218" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I218" s="10" t="s">
+      <c r="I218" s="8" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2899,216 +2986,216 @@
         <f t="shared" si="3"/>
         <v>833</v>
       </c>
-      <c r="D219" s="8"/>
-      <c r="E219" s="8"/>
-      <c r="F219" s="8"/>
-      <c r="G219" s="8"/>
+      <c r="D219" s="9"/>
+      <c r="E219" s="9"/>
+      <c r="F219" s="9"/>
+      <c r="G219" s="9"/>
     </row>
     <row r="220" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <f t="shared" si="3"/>
         <v>832</v>
       </c>
-      <c r="D220" s="8"/>
-      <c r="E220" s="8"/>
-      <c r="F220" s="8"/>
-      <c r="G220" s="8"/>
+      <c r="D220" s="9"/>
+      <c r="E220" s="9"/>
+      <c r="F220" s="9"/>
+      <c r="G220" s="9"/>
     </row>
     <row r="221" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <f t="shared" si="3"/>
         <v>831</v>
       </c>
-      <c r="D221" s="8"/>
-      <c r="E221" s="8"/>
-      <c r="F221" s="8"/>
-      <c r="G221" s="8"/>
+      <c r="D221" s="9"/>
+      <c r="E221" s="9"/>
+      <c r="F221" s="9"/>
+      <c r="G221" s="9"/>
     </row>
     <row r="222" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <f t="shared" si="3"/>
         <v>830</v>
       </c>
-      <c r="D222" s="8"/>
-      <c r="E222" s="8"/>
-      <c r="F222" s="8"/>
-      <c r="G222" s="8"/>
+      <c r="D222" s="9"/>
+      <c r="E222" s="9"/>
+      <c r="F222" s="9"/>
+      <c r="G222" s="9"/>
     </row>
     <row r="223" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <f t="shared" si="3"/>
         <v>829</v>
       </c>
-      <c r="D223" s="8"/>
-      <c r="E223" s="8"/>
-      <c r="F223" s="8"/>
-      <c r="G223" s="8"/>
+      <c r="D223" s="9"/>
+      <c r="E223" s="9"/>
+      <c r="F223" s="9"/>
+      <c r="G223" s="9"/>
     </row>
     <row r="224" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <f t="shared" si="3"/>
         <v>828</v>
       </c>
-      <c r="D224" s="8"/>
-      <c r="E224" s="8"/>
-      <c r="F224" s="8"/>
-      <c r="G224" s="8"/>
+      <c r="D224" s="9"/>
+      <c r="E224" s="9"/>
+      <c r="F224" s="9"/>
+      <c r="G224" s="9"/>
     </row>
     <row r="225" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <f t="shared" si="3"/>
         <v>827</v>
       </c>
-      <c r="D225" s="8"/>
-      <c r="E225" s="8"/>
-      <c r="F225" s="8"/>
-      <c r="G225" s="8"/>
+      <c r="D225" s="9"/>
+      <c r="E225" s="9"/>
+      <c r="F225" s="9"/>
+      <c r="G225" s="9"/>
     </row>
     <row r="226" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <f t="shared" si="3"/>
         <v>826</v>
       </c>
-      <c r="D226" s="8"/>
-      <c r="E226" s="8"/>
-      <c r="F226" s="8"/>
-      <c r="G226" s="8"/>
+      <c r="D226" s="9"/>
+      <c r="E226" s="9"/>
+      <c r="F226" s="9"/>
+      <c r="G226" s="9"/>
     </row>
     <row r="227" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <f t="shared" si="3"/>
         <v>825</v>
       </c>
-      <c r="D227" s="8"/>
-      <c r="E227" s="8"/>
-      <c r="F227" s="8"/>
-      <c r="G227" s="8"/>
+      <c r="D227" s="9"/>
+      <c r="E227" s="9"/>
+      <c r="F227" s="9"/>
+      <c r="G227" s="9"/>
     </row>
     <row r="228" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <f t="shared" si="3"/>
         <v>824</v>
       </c>
-      <c r="D228" s="8"/>
-      <c r="E228" s="8"/>
-      <c r="F228" s="8"/>
-      <c r="G228" s="8"/>
+      <c r="D228" s="9"/>
+      <c r="E228" s="9"/>
+      <c r="F228" s="9"/>
+      <c r="G228" s="9"/>
     </row>
     <row r="229" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <f t="shared" si="3"/>
         <v>823</v>
       </c>
-      <c r="D229" s="8"/>
-      <c r="E229" s="8"/>
-      <c r="F229" s="8"/>
-      <c r="G229" s="8"/>
+      <c r="D229" s="9"/>
+      <c r="E229" s="9"/>
+      <c r="F229" s="9"/>
+      <c r="G229" s="9"/>
     </row>
     <row r="230" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <f t="shared" si="3"/>
         <v>822</v>
       </c>
-      <c r="D230" s="8"/>
-      <c r="E230" s="8"/>
-      <c r="F230" s="8"/>
-      <c r="G230" s="8"/>
+      <c r="D230" s="9"/>
+      <c r="E230" s="9"/>
+      <c r="F230" s="9"/>
+      <c r="G230" s="9"/>
     </row>
     <row r="231" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <f t="shared" si="3"/>
         <v>821</v>
       </c>
-      <c r="D231" s="8"/>
-      <c r="E231" s="8"/>
-      <c r="F231" s="8"/>
-      <c r="G231" s="8"/>
+      <c r="D231" s="9"/>
+      <c r="E231" s="9"/>
+      <c r="F231" s="9"/>
+      <c r="G231" s="9"/>
     </row>
     <row r="232" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <f t="shared" si="3"/>
         <v>820</v>
       </c>
-      <c r="D232" s="8"/>
-      <c r="E232" s="8"/>
-      <c r="F232" s="8"/>
-      <c r="G232" s="8"/>
+      <c r="D232" s="9"/>
+      <c r="E232" s="9"/>
+      <c r="F232" s="9"/>
+      <c r="G232" s="9"/>
     </row>
     <row r="233" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <f t="shared" si="3"/>
         <v>819</v>
       </c>
-      <c r="D233" s="8"/>
-      <c r="E233" s="8"/>
-      <c r="F233" s="8"/>
-      <c r="G233" s="8"/>
+      <c r="D233" s="9"/>
+      <c r="E233" s="9"/>
+      <c r="F233" s="9"/>
+      <c r="G233" s="9"/>
     </row>
     <row r="234" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <f t="shared" si="3"/>
         <v>818</v>
       </c>
-      <c r="D234" s="8"/>
-      <c r="E234" s="8"/>
-      <c r="F234" s="8"/>
-      <c r="G234" s="8"/>
+      <c r="D234" s="9"/>
+      <c r="E234" s="9"/>
+      <c r="F234" s="9"/>
+      <c r="G234" s="9"/>
     </row>
     <row r="235" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <f t="shared" si="3"/>
         <v>817</v>
       </c>
-      <c r="D235" s="8"/>
-      <c r="E235" s="8"/>
-      <c r="F235" s="8"/>
-      <c r="G235" s="8"/>
+      <c r="D235" s="9"/>
+      <c r="E235" s="9"/>
+      <c r="F235" s="9"/>
+      <c r="G235" s="9"/>
     </row>
     <row r="236" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <f t="shared" si="3"/>
         <v>816</v>
       </c>
-      <c r="D236" s="8"/>
-      <c r="E236" s="8"/>
-      <c r="F236" s="8"/>
-      <c r="G236" s="8"/>
+      <c r="D236" s="9"/>
+      <c r="E236" s="9"/>
+      <c r="F236" s="9"/>
+      <c r="G236" s="9"/>
     </row>
     <row r="237" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <f t="shared" si="3"/>
         <v>815</v>
       </c>
-      <c r="D237" s="8"/>
-      <c r="E237" s="8"/>
-      <c r="F237" s="8"/>
-      <c r="G237" s="8"/>
+      <c r="D237" s="9"/>
+      <c r="E237" s="9"/>
+      <c r="F237" s="9"/>
+      <c r="G237" s="9"/>
     </row>
     <row r="238" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <f t="shared" si="3"/>
         <v>814</v>
       </c>
-      <c r="D238" s="8"/>
-      <c r="E238" s="8"/>
-      <c r="F238" s="8"/>
-      <c r="G238" s="8"/>
+      <c r="D238" s="9"/>
+      <c r="E238" s="9"/>
+      <c r="F238" s="9"/>
+      <c r="G238" s="9"/>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <f t="shared" si="3"/>
         <v>813</v>
       </c>
-      <c r="D239" s="8" t="s">
+      <c r="D239" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E239" s="8"/>
-      <c r="F239" s="8"/>
-      <c r="G239" s="8"/>
-      <c r="H239" s="10" t="s">
+      <c r="E239" s="9"/>
+      <c r="F239" s="9"/>
+      <c r="G239" s="9"/>
+      <c r="H239" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="I239" s="10" t="s">
+      <c r="I239" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3117,150 +3204,150 @@
         <f t="shared" si="3"/>
         <v>812</v>
       </c>
-      <c r="D240" s="8"/>
-      <c r="E240" s="8"/>
-      <c r="F240" s="8"/>
-      <c r="G240" s="8"/>
+      <c r="D240" s="9"/>
+      <c r="E240" s="9"/>
+      <c r="F240" s="9"/>
+      <c r="G240" s="9"/>
     </row>
     <row r="241" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <f t="shared" si="3"/>
         <v>811</v>
       </c>
-      <c r="D241" s="8"/>
-      <c r="E241" s="8"/>
-      <c r="F241" s="8"/>
-      <c r="G241" s="8"/>
+      <c r="D241" s="9"/>
+      <c r="E241" s="9"/>
+      <c r="F241" s="9"/>
+      <c r="G241" s="9"/>
     </row>
     <row r="242" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <f t="shared" si="3"/>
         <v>810</v>
       </c>
-      <c r="D242" s="8"/>
-      <c r="E242" s="8"/>
-      <c r="F242" s="8"/>
-      <c r="G242" s="8"/>
+      <c r="D242" s="9"/>
+      <c r="E242" s="9"/>
+      <c r="F242" s="9"/>
+      <c r="G242" s="9"/>
     </row>
     <row r="243" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <f t="shared" si="3"/>
         <v>809</v>
       </c>
-      <c r="D243" s="8"/>
-      <c r="E243" s="8"/>
-      <c r="F243" s="8"/>
-      <c r="G243" s="8"/>
+      <c r="D243" s="9"/>
+      <c r="E243" s="9"/>
+      <c r="F243" s="9"/>
+      <c r="G243" s="9"/>
     </row>
     <row r="244" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <f t="shared" si="3"/>
         <v>808</v>
       </c>
-      <c r="D244" s="8"/>
-      <c r="E244" s="8"/>
-      <c r="F244" s="8"/>
-      <c r="G244" s="8"/>
+      <c r="D244" s="9"/>
+      <c r="E244" s="9"/>
+      <c r="F244" s="9"/>
+      <c r="G244" s="9"/>
     </row>
     <row r="245" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <f t="shared" si="3"/>
         <v>807</v>
       </c>
-      <c r="D245" s="8"/>
-      <c r="E245" s="8"/>
-      <c r="F245" s="8"/>
-      <c r="G245" s="8"/>
+      <c r="D245" s="9"/>
+      <c r="E245" s="9"/>
+      <c r="F245" s="9"/>
+      <c r="G245" s="9"/>
     </row>
     <row r="246" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <f t="shared" si="3"/>
         <v>806</v>
       </c>
-      <c r="D246" s="8"/>
-      <c r="E246" s="8"/>
-      <c r="F246" s="8"/>
-      <c r="G246" s="8"/>
+      <c r="D246" s="9"/>
+      <c r="E246" s="9"/>
+      <c r="F246" s="9"/>
+      <c r="G246" s="9"/>
     </row>
     <row r="247" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <f t="shared" si="3"/>
         <v>805</v>
       </c>
-      <c r="D247" s="8"/>
-      <c r="E247" s="8"/>
-      <c r="F247" s="8"/>
-      <c r="G247" s="8"/>
+      <c r="D247" s="9"/>
+      <c r="E247" s="9"/>
+      <c r="F247" s="9"/>
+      <c r="G247" s="9"/>
     </row>
     <row r="248" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <f t="shared" si="3"/>
         <v>804</v>
       </c>
-      <c r="D248" s="8"/>
-      <c r="E248" s="8"/>
-      <c r="F248" s="8"/>
-      <c r="G248" s="8"/>
+      <c r="D248" s="9"/>
+      <c r="E248" s="9"/>
+      <c r="F248" s="9"/>
+      <c r="G248" s="9"/>
     </row>
     <row r="249" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <f t="shared" si="3"/>
         <v>803</v>
       </c>
-      <c r="D249" s="8"/>
-      <c r="E249" s="8"/>
-      <c r="F249" s="8"/>
-      <c r="G249" s="8"/>
+      <c r="D249" s="9"/>
+      <c r="E249" s="9"/>
+      <c r="F249" s="9"/>
+      <c r="G249" s="9"/>
     </row>
     <row r="250" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <f t="shared" si="3"/>
         <v>802</v>
       </c>
-      <c r="D250" s="8"/>
-      <c r="E250" s="8"/>
-      <c r="F250" s="8"/>
-      <c r="G250" s="8"/>
+      <c r="D250" s="9"/>
+      <c r="E250" s="9"/>
+      <c r="F250" s="9"/>
+      <c r="G250" s="9"/>
     </row>
     <row r="251" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <f t="shared" si="3"/>
         <v>801</v>
       </c>
-      <c r="D251" s="8"/>
-      <c r="E251" s="8"/>
-      <c r="F251" s="8"/>
-      <c r="G251" s="8"/>
+      <c r="D251" s="9"/>
+      <c r="E251" s="9"/>
+      <c r="F251" s="9"/>
+      <c r="G251" s="9"/>
     </row>
     <row r="252" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <f t="shared" si="3"/>
         <v>800</v>
       </c>
-      <c r="D252" s="8"/>
-      <c r="E252" s="8"/>
-      <c r="F252" s="8"/>
-      <c r="G252" s="8"/>
+      <c r="D252" s="9"/>
+      <c r="E252" s="9"/>
+      <c r="F252" s="9"/>
+      <c r="G252" s="9"/>
     </row>
     <row r="253" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <f t="shared" si="3"/>
         <v>799</v>
       </c>
-      <c r="D253" s="8"/>
-      <c r="E253" s="8"/>
-      <c r="F253" s="8"/>
-      <c r="G253" s="8"/>
+      <c r="D253" s="9"/>
+      <c r="E253" s="9"/>
+      <c r="F253" s="9"/>
+      <c r="G253" s="9"/>
     </row>
     <row r="254" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <f t="shared" si="3"/>
         <v>798</v>
       </c>
-      <c r="D254" s="8"/>
-      <c r="E254" s="8"/>
-      <c r="F254" s="8"/>
-      <c r="G254" s="8"/>
+      <c r="D254" s="9"/>
+      <c r="E254" s="9"/>
+      <c r="F254" s="9"/>
+      <c r="G254" s="9"/>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
@@ -3270,16 +3357,16 @@
       <c r="B255" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D255" s="8" t="s">
+      <c r="D255" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E255" s="8"/>
-      <c r="F255" s="8"/>
-      <c r="G255" s="8"/>
-      <c r="H255" s="10" t="s">
+      <c r="E255" s="9"/>
+      <c r="F255" s="9"/>
+      <c r="G255" s="9"/>
+      <c r="H255" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I255" s="10" t="s">
+      <c r="I255" s="8" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3288,13 +3375,13 @@
         <f t="shared" si="3"/>
         <v>796</v>
       </c>
-      <c r="C256" s="8" t="s">
+      <c r="C256" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D256" s="8"/>
-      <c r="E256" s="8"/>
-      <c r="F256" s="8"/>
-      <c r="G256" s="8"/>
+      <c r="D256" s="9"/>
+      <c r="E256" s="9"/>
+      <c r="F256" s="9"/>
+      <c r="G256" s="9"/>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
@@ -3304,17 +3391,17 @@
       <c r="B257" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C257" s="8"/>
-      <c r="D257" s="8"/>
-      <c r="E257" s="8"/>
-      <c r="F257" s="8" t="s">
+      <c r="C257" s="9"/>
+      <c r="D257" s="9"/>
+      <c r="E257" s="9"/>
+      <c r="F257" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G257" s="8"/>
-      <c r="H257" s="10" t="s">
+      <c r="G257" s="9"/>
+      <c r="H257" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="I257" s="10" t="s">
+      <c r="I257" s="8" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3323,157 +3410,157 @@
         <f t="shared" si="3"/>
         <v>794</v>
       </c>
-      <c r="C258" s="8"/>
-      <c r="D258" s="8"/>
-      <c r="E258" s="8"/>
-      <c r="F258" s="8"/>
-      <c r="G258" s="8"/>
+      <c r="C258" s="9"/>
+      <c r="D258" s="9"/>
+      <c r="E258" s="9"/>
+      <c r="F258" s="9"/>
+      <c r="G258" s="9"/>
     </row>
     <row r="259" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <f t="shared" si="3"/>
         <v>793</v>
       </c>
-      <c r="C259" s="8"/>
-      <c r="D259" s="8"/>
-      <c r="E259" s="8"/>
-      <c r="F259" s="8"/>
-      <c r="G259" s="8"/>
+      <c r="C259" s="9"/>
+      <c r="D259" s="9"/>
+      <c r="E259" s="9"/>
+      <c r="F259" s="9"/>
+      <c r="G259" s="9"/>
     </row>
     <row r="260" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <f t="shared" ref="A260:A323" si="4">A259-1</f>
         <v>792</v>
       </c>
-      <c r="C260" s="8"/>
-      <c r="D260" s="8"/>
-      <c r="E260" s="8"/>
-      <c r="F260" s="8"/>
-      <c r="G260" s="8"/>
+      <c r="C260" s="9"/>
+      <c r="D260" s="9"/>
+      <c r="E260" s="9"/>
+      <c r="F260" s="9"/>
+      <c r="G260" s="9"/>
     </row>
     <row r="261" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <f t="shared" si="4"/>
         <v>791</v>
       </c>
-      <c r="C261" s="8"/>
-      <c r="D261" s="8"/>
-      <c r="E261" s="8"/>
-      <c r="F261" s="8"/>
-      <c r="G261" s="8"/>
+      <c r="C261" s="9"/>
+      <c r="D261" s="9"/>
+      <c r="E261" s="9"/>
+      <c r="F261" s="9"/>
+      <c r="G261" s="9"/>
     </row>
     <row r="262" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <f t="shared" si="4"/>
         <v>790</v>
       </c>
-      <c r="C262" s="8"/>
-      <c r="D262" s="8"/>
-      <c r="E262" s="8"/>
-      <c r="F262" s="8"/>
-      <c r="G262" s="8"/>
+      <c r="C262" s="9"/>
+      <c r="D262" s="9"/>
+      <c r="E262" s="9"/>
+      <c r="F262" s="9"/>
+      <c r="G262" s="9"/>
     </row>
     <row r="263" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <f t="shared" si="4"/>
         <v>789</v>
       </c>
-      <c r="C263" s="8"/>
-      <c r="D263" s="8"/>
-      <c r="E263" s="8"/>
-      <c r="F263" s="8"/>
-      <c r="G263" s="8"/>
+      <c r="C263" s="9"/>
+      <c r="D263" s="9"/>
+      <c r="E263" s="9"/>
+      <c r="F263" s="9"/>
+      <c r="G263" s="9"/>
     </row>
     <row r="264" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <f t="shared" si="4"/>
         <v>788</v>
       </c>
-      <c r="C264" s="8"/>
-      <c r="D264" s="8"/>
-      <c r="E264" s="8"/>
-      <c r="F264" s="8"/>
-      <c r="G264" s="8"/>
+      <c r="C264" s="9"/>
+      <c r="D264" s="9"/>
+      <c r="E264" s="9"/>
+      <c r="F264" s="9"/>
+      <c r="G264" s="9"/>
     </row>
     <row r="265" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <f t="shared" si="4"/>
         <v>787</v>
       </c>
-      <c r="C265" s="8"/>
-      <c r="D265" s="8"/>
-      <c r="E265" s="8"/>
-      <c r="F265" s="8"/>
-      <c r="G265" s="8"/>
+      <c r="C265" s="9"/>
+      <c r="D265" s="9"/>
+      <c r="E265" s="9"/>
+      <c r="F265" s="9"/>
+      <c r="G265" s="9"/>
     </row>
     <row r="266" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <f t="shared" si="4"/>
         <v>786</v>
       </c>
-      <c r="C266" s="8"/>
-      <c r="D266" s="8"/>
-      <c r="E266" s="8"/>
-      <c r="F266" s="8"/>
-      <c r="G266" s="8"/>
+      <c r="C266" s="9"/>
+      <c r="D266" s="9"/>
+      <c r="E266" s="9"/>
+      <c r="F266" s="9"/>
+      <c r="G266" s="9"/>
     </row>
     <row r="267" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <f t="shared" si="4"/>
         <v>785</v>
       </c>
-      <c r="C267" s="8"/>
-      <c r="D267" s="8"/>
-      <c r="E267" s="8"/>
-      <c r="F267" s="8"/>
-      <c r="G267" s="8"/>
+      <c r="C267" s="9"/>
+      <c r="D267" s="9"/>
+      <c r="E267" s="9"/>
+      <c r="F267" s="9"/>
+      <c r="G267" s="9"/>
     </row>
     <row r="268" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <f t="shared" si="4"/>
         <v>784</v>
       </c>
-      <c r="C268" s="8"/>
-      <c r="D268" s="8"/>
-      <c r="E268" s="8"/>
-      <c r="F268" s="8"/>
-      <c r="G268" s="8"/>
+      <c r="C268" s="9"/>
+      <c r="D268" s="9"/>
+      <c r="E268" s="9"/>
+      <c r="F268" s="9"/>
+      <c r="G268" s="9"/>
     </row>
     <row r="269" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <f t="shared" si="4"/>
         <v>783</v>
       </c>
-      <c r="C269" s="8"/>
-      <c r="D269" s="8"/>
-      <c r="E269" s="8"/>
-      <c r="F269" s="8"/>
-      <c r="G269" s="8"/>
+      <c r="C269" s="9"/>
+      <c r="D269" s="9"/>
+      <c r="E269" s="9"/>
+      <c r="F269" s="9"/>
+      <c r="G269" s="9"/>
     </row>
     <row r="270" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <f t="shared" si="4"/>
         <v>782</v>
       </c>
-      <c r="C270" s="8"/>
-      <c r="D270" s="8"/>
-      <c r="E270" s="8"/>
-      <c r="F270" s="8"/>
-      <c r="G270" s="8"/>
+      <c r="C270" s="9"/>
+      <c r="D270" s="9"/>
+      <c r="E270" s="9"/>
+      <c r="F270" s="9"/>
+      <c r="G270" s="9"/>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <f t="shared" si="4"/>
         <v>781</v>
       </c>
-      <c r="C271" s="8"/>
-      <c r="D271" s="8" t="s">
+      <c r="C271" s="9"/>
+      <c r="D271" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E271" s="8"/>
-      <c r="F271" s="8"/>
-      <c r="G271" s="8"/>
-      <c r="H271" s="10" t="s">
+      <c r="E271" s="9"/>
+      <c r="F271" s="9"/>
+      <c r="G271" s="9"/>
+      <c r="H271" s="8" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3482,170 +3569,170 @@
         <f t="shared" si="4"/>
         <v>780</v>
       </c>
-      <c r="C272" s="8"/>
-      <c r="D272" s="8"/>
-      <c r="E272" s="8"/>
-      <c r="F272" s="8"/>
-      <c r="G272" s="8"/>
+      <c r="C272" s="9"/>
+      <c r="D272" s="9"/>
+      <c r="E272" s="9"/>
+      <c r="F272" s="9"/>
+      <c r="G272" s="9"/>
     </row>
     <row r="273" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <f t="shared" si="4"/>
         <v>779</v>
       </c>
-      <c r="C273" s="8"/>
-      <c r="D273" s="8"/>
-      <c r="E273" s="8"/>
-      <c r="F273" s="8"/>
-      <c r="G273" s="8"/>
+      <c r="C273" s="9"/>
+      <c r="D273" s="9"/>
+      <c r="E273" s="9"/>
+      <c r="F273" s="9"/>
+      <c r="G273" s="9"/>
     </row>
     <row r="274" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <f t="shared" si="4"/>
         <v>778</v>
       </c>
-      <c r="C274" s="8"/>
-      <c r="D274" s="8"/>
-      <c r="E274" s="8"/>
-      <c r="F274" s="8"/>
-      <c r="G274" s="8"/>
+      <c r="C274" s="9"/>
+      <c r="D274" s="9"/>
+      <c r="E274" s="9"/>
+      <c r="F274" s="9"/>
+      <c r="G274" s="9"/>
     </row>
     <row r="275" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <f t="shared" si="4"/>
         <v>777</v>
       </c>
-      <c r="C275" s="8"/>
-      <c r="D275" s="8"/>
-      <c r="E275" s="8"/>
-      <c r="F275" s="8"/>
-      <c r="G275" s="8"/>
+      <c r="C275" s="9"/>
+      <c r="D275" s="9"/>
+      <c r="E275" s="9"/>
+      <c r="F275" s="9"/>
+      <c r="G275" s="9"/>
     </row>
     <row r="276" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <f t="shared" si="4"/>
         <v>776</v>
       </c>
-      <c r="C276" s="8"/>
-      <c r="D276" s="8"/>
-      <c r="E276" s="8"/>
-      <c r="F276" s="8"/>
-      <c r="G276" s="8"/>
+      <c r="C276" s="9"/>
+      <c r="D276" s="9"/>
+      <c r="E276" s="9"/>
+      <c r="F276" s="9"/>
+      <c r="G276" s="9"/>
     </row>
     <row r="277" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <f t="shared" si="4"/>
         <v>775</v>
       </c>
-      <c r="C277" s="8"/>
-      <c r="D277" s="8"/>
-      <c r="E277" s="8"/>
-      <c r="F277" s="8"/>
-      <c r="G277" s="8"/>
+      <c r="C277" s="9"/>
+      <c r="D277" s="9"/>
+      <c r="E277" s="9"/>
+      <c r="F277" s="9"/>
+      <c r="G277" s="9"/>
     </row>
     <row r="278" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <f t="shared" si="4"/>
         <v>774</v>
       </c>
-      <c r="C278" s="8"/>
-      <c r="D278" s="8"/>
-      <c r="E278" s="8"/>
-      <c r="F278" s="8"/>
-      <c r="G278" s="8"/>
+      <c r="C278" s="9"/>
+      <c r="D278" s="9"/>
+      <c r="E278" s="9"/>
+      <c r="F278" s="9"/>
+      <c r="G278" s="9"/>
     </row>
     <row r="279" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <f t="shared" si="4"/>
         <v>773</v>
       </c>
-      <c r="C279" s="8"/>
-      <c r="D279" s="8"/>
-      <c r="E279" s="8"/>
-      <c r="F279" s="8"/>
-      <c r="G279" s="8"/>
+      <c r="C279" s="9"/>
+      <c r="D279" s="9"/>
+      <c r="E279" s="9"/>
+      <c r="F279" s="9"/>
+      <c r="G279" s="9"/>
     </row>
     <row r="280" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <f t="shared" si="4"/>
         <v>772</v>
       </c>
-      <c r="C280" s="8"/>
-      <c r="D280" s="8"/>
-      <c r="E280" s="8"/>
-      <c r="F280" s="8"/>
-      <c r="G280" s="8"/>
+      <c r="C280" s="9"/>
+      <c r="D280" s="9"/>
+      <c r="E280" s="9"/>
+      <c r="F280" s="9"/>
+      <c r="G280" s="9"/>
     </row>
     <row r="281" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <f t="shared" si="4"/>
         <v>771</v>
       </c>
-      <c r="C281" s="8"/>
-      <c r="D281" s="8"/>
-      <c r="E281" s="8"/>
-      <c r="F281" s="8"/>
-      <c r="G281" s="8"/>
+      <c r="C281" s="9"/>
+      <c r="D281" s="9"/>
+      <c r="E281" s="9"/>
+      <c r="F281" s="9"/>
+      <c r="G281" s="9"/>
     </row>
     <row r="282" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <f t="shared" si="4"/>
         <v>770</v>
       </c>
-      <c r="C282" s="8"/>
-      <c r="D282" s="8"/>
-      <c r="E282" s="8"/>
-      <c r="F282" s="8"/>
-      <c r="G282" s="8"/>
+      <c r="C282" s="9"/>
+      <c r="D282" s="9"/>
+      <c r="E282" s="9"/>
+      <c r="F282" s="9"/>
+      <c r="G282" s="9"/>
     </row>
     <row r="283" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <f t="shared" si="4"/>
         <v>769</v>
       </c>
-      <c r="C283" s="8"/>
-      <c r="D283" s="8"/>
-      <c r="E283" s="8"/>
-      <c r="F283" s="8"/>
-      <c r="G283" s="8"/>
+      <c r="C283" s="9"/>
+      <c r="D283" s="9"/>
+      <c r="E283" s="9"/>
+      <c r="F283" s="9"/>
+      <c r="G283" s="9"/>
     </row>
     <row r="284" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <f t="shared" si="4"/>
         <v>768</v>
       </c>
-      <c r="C284" s="8"/>
-      <c r="D284" s="8"/>
-      <c r="E284" s="8"/>
-      <c r="F284" s="8"/>
-      <c r="G284" s="8"/>
+      <c r="C284" s="9"/>
+      <c r="D284" s="9"/>
+      <c r="E284" s="9"/>
+      <c r="F284" s="9"/>
+      <c r="G284" s="9"/>
     </row>
     <row r="285" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <f t="shared" si="4"/>
         <v>767</v>
       </c>
-      <c r="C285" s="8"/>
-      <c r="D285" s="8"/>
-      <c r="E285" s="8"/>
-      <c r="F285" s="8"/>
-      <c r="G285" s="8"/>
+      <c r="C285" s="9"/>
+      <c r="D285" s="9"/>
+      <c r="E285" s="9"/>
+      <c r="F285" s="9"/>
+      <c r="G285" s="9"/>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <f t="shared" si="4"/>
         <v>766</v>
       </c>
-      <c r="C286" s="8"/>
-      <c r="D286" s="8"/>
-      <c r="E286" s="8"/>
-      <c r="F286" s="8" t="s">
+      <c r="C286" s="9"/>
+      <c r="D286" s="9"/>
+      <c r="E286" s="9"/>
+      <c r="F286" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="H286" s="10" t="s">
+      <c r="H286" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="I286" s="10" t="s">
+      <c r="I286" s="8" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3654,148 +3741,148 @@
         <f t="shared" si="4"/>
         <v>765</v>
       </c>
-      <c r="C287" s="8"/>
-      <c r="D287" s="8"/>
-      <c r="E287" s="8"/>
-      <c r="F287" s="8"/>
+      <c r="C287" s="9"/>
+      <c r="D287" s="9"/>
+      <c r="E287" s="9"/>
+      <c r="F287" s="9"/>
     </row>
     <row r="288" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <f t="shared" si="4"/>
         <v>764</v>
       </c>
-      <c r="C288" s="8"/>
-      <c r="D288" s="8"/>
-      <c r="E288" s="8"/>
-      <c r="F288" s="8"/>
+      <c r="C288" s="9"/>
+      <c r="D288" s="9"/>
+      <c r="E288" s="9"/>
+      <c r="F288" s="9"/>
     </row>
     <row r="289" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <f t="shared" si="4"/>
         <v>763</v>
       </c>
-      <c r="C289" s="8"/>
-      <c r="D289" s="8"/>
-      <c r="E289" s="8"/>
-      <c r="F289" s="8"/>
+      <c r="C289" s="9"/>
+      <c r="D289" s="9"/>
+      <c r="E289" s="9"/>
+      <c r="F289" s="9"/>
     </row>
     <row r="290" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <f t="shared" si="4"/>
         <v>762</v>
       </c>
-      <c r="C290" s="8"/>
-      <c r="D290" s="8"/>
-      <c r="E290" s="8"/>
-      <c r="F290" s="8"/>
+      <c r="C290" s="9"/>
+      <c r="D290" s="9"/>
+      <c r="E290" s="9"/>
+      <c r="F290" s="9"/>
     </row>
     <row r="291" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <f t="shared" si="4"/>
         <v>761</v>
       </c>
-      <c r="C291" s="8"/>
-      <c r="D291" s="8"/>
-      <c r="E291" s="8"/>
-      <c r="F291" s="8"/>
+      <c r="C291" s="9"/>
+      <c r="D291" s="9"/>
+      <c r="E291" s="9"/>
+      <c r="F291" s="9"/>
     </row>
     <row r="292" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <f t="shared" si="4"/>
         <v>760</v>
       </c>
-      <c r="C292" s="8"/>
-      <c r="D292" s="8"/>
-      <c r="E292" s="8"/>
-      <c r="F292" s="8"/>
+      <c r="C292" s="9"/>
+      <c r="D292" s="9"/>
+      <c r="E292" s="9"/>
+      <c r="F292" s="9"/>
     </row>
     <row r="293" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <f t="shared" si="4"/>
         <v>759</v>
       </c>
-      <c r="C293" s="8"/>
-      <c r="D293" s="8"/>
-      <c r="E293" s="8"/>
-      <c r="F293" s="8"/>
+      <c r="C293" s="9"/>
+      <c r="D293" s="9"/>
+      <c r="E293" s="9"/>
+      <c r="F293" s="9"/>
     </row>
     <row r="294" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <f t="shared" si="4"/>
         <v>758</v>
       </c>
-      <c r="C294" s="8"/>
-      <c r="D294" s="8"/>
-      <c r="E294" s="8"/>
-      <c r="F294" s="8"/>
+      <c r="C294" s="9"/>
+      <c r="D294" s="9"/>
+      <c r="E294" s="9"/>
+      <c r="F294" s="9"/>
     </row>
     <row r="295" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <f t="shared" si="4"/>
         <v>757</v>
       </c>
-      <c r="C295" s="8"/>
-      <c r="D295" s="8"/>
-      <c r="E295" s="8"/>
-      <c r="F295" s="8"/>
+      <c r="C295" s="9"/>
+      <c r="D295" s="9"/>
+      <c r="E295" s="9"/>
+      <c r="F295" s="9"/>
     </row>
     <row r="296" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <f t="shared" si="4"/>
         <v>756</v>
       </c>
-      <c r="C296" s="8"/>
-      <c r="D296" s="8"/>
-      <c r="E296" s="8"/>
-      <c r="F296" s="8"/>
+      <c r="C296" s="9"/>
+      <c r="D296" s="9"/>
+      <c r="E296" s="9"/>
+      <c r="F296" s="9"/>
     </row>
     <row r="297" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <f t="shared" si="4"/>
         <v>755</v>
       </c>
-      <c r="C297" s="8"/>
-      <c r="D297" s="8"/>
-      <c r="E297" s="8"/>
-      <c r="F297" s="8"/>
+      <c r="C297" s="9"/>
+      <c r="D297" s="9"/>
+      <c r="E297" s="9"/>
+      <c r="F297" s="9"/>
     </row>
     <row r="298" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <f t="shared" si="4"/>
         <v>754</v>
       </c>
-      <c r="C298" s="8"/>
-      <c r="D298" s="8"/>
-      <c r="E298" s="8"/>
-      <c r="F298" s="8"/>
+      <c r="C298" s="9"/>
+      <c r="D298" s="9"/>
+      <c r="E298" s="9"/>
+      <c r="F298" s="9"/>
     </row>
     <row r="299" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <f t="shared" si="4"/>
         <v>753</v>
       </c>
-      <c r="C299" s="8"/>
-      <c r="D299" s="8"/>
-      <c r="E299" s="8"/>
-      <c r="F299" s="8"/>
+      <c r="C299" s="9"/>
+      <c r="D299" s="9"/>
+      <c r="E299" s="9"/>
+      <c r="F299" s="9"/>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <f t="shared" si="4"/>
         <v>752</v>
       </c>
-      <c r="C300" s="8"/>
+      <c r="C300" s="9"/>
       <c r="D300" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E300" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F300" s="8"/>
-      <c r="H300" s="10" t="s">
+      <c r="F300" s="9"/>
+      <c r="H300" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="I300" s="10" t="s">
+      <c r="I300" s="8" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3804,35 +3891,35 @@
         <f t="shared" si="4"/>
         <v>751</v>
       </c>
-      <c r="C301" s="8"/>
-      <c r="D301" s="8" t="s">
+      <c r="C301" s="9"/>
+      <c r="D301" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E301" s="8" t="s">
+      <c r="E301" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F301" s="8"/>
+      <c r="F301" s="9"/>
     </row>
     <row r="302" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <f t="shared" si="4"/>
         <v>750</v>
       </c>
-      <c r="C302" s="8"/>
-      <c r="D302" s="8"/>
-      <c r="E302" s="8"/>
-      <c r="F302" s="8"/>
+      <c r="C302" s="9"/>
+      <c r="D302" s="9"/>
+      <c r="E302" s="9"/>
+      <c r="F302" s="9"/>
     </row>
     <row r="303" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <f t="shared" si="4"/>
         <v>749</v>
       </c>
-      <c r="C303" s="8"/>
-      <c r="D303" s="8"/>
-      <c r="E303" s="8"/>
-      <c r="F303" s="8"/>
-      <c r="G303" s="8" t="s">
+      <c r="C303" s="9"/>
+      <c r="D303" s="9"/>
+      <c r="E303" s="9"/>
+      <c r="F303" s="9"/>
+      <c r="G303" s="9" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3841,91 +3928,91 @@
         <f t="shared" si="4"/>
         <v>748</v>
       </c>
-      <c r="C304" s="8"/>
-      <c r="D304" s="8"/>
-      <c r="E304" s="8"/>
-      <c r="F304" s="8"/>
-      <c r="G304" s="8"/>
+      <c r="C304" s="9"/>
+      <c r="D304" s="9"/>
+      <c r="E304" s="9"/>
+      <c r="F304" s="9"/>
+      <c r="G304" s="9"/>
     </row>
     <row r="305" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <f t="shared" si="4"/>
         <v>747</v>
       </c>
-      <c r="C305" s="8"/>
-      <c r="D305" s="8"/>
-      <c r="E305" s="8"/>
-      <c r="F305" s="8"/>
-      <c r="G305" s="8"/>
+      <c r="C305" s="9"/>
+      <c r="D305" s="9"/>
+      <c r="E305" s="9"/>
+      <c r="F305" s="9"/>
+      <c r="G305" s="9"/>
     </row>
     <row r="306" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <f t="shared" si="4"/>
         <v>746</v>
       </c>
-      <c r="C306" s="8"/>
-      <c r="D306" s="8"/>
-      <c r="E306" s="8"/>
-      <c r="F306" s="8"/>
-      <c r="G306" s="8"/>
+      <c r="C306" s="9"/>
+      <c r="D306" s="9"/>
+      <c r="E306" s="9"/>
+      <c r="F306" s="9"/>
+      <c r="G306" s="9"/>
     </row>
     <row r="307" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <f t="shared" si="4"/>
         <v>745</v>
       </c>
-      <c r="C307" s="8"/>
-      <c r="D307" s="8"/>
-      <c r="E307" s="8"/>
-      <c r="F307" s="8"/>
-      <c r="G307" s="8"/>
+      <c r="C307" s="9"/>
+      <c r="D307" s="9"/>
+      <c r="E307" s="9"/>
+      <c r="F307" s="9"/>
+      <c r="G307" s="9"/>
     </row>
     <row r="308" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <f t="shared" si="4"/>
         <v>744</v>
       </c>
-      <c r="C308" s="8"/>
-      <c r="D308" s="8"/>
-      <c r="E308" s="8"/>
-      <c r="F308" s="8"/>
-      <c r="G308" s="8"/>
+      <c r="C308" s="9"/>
+      <c r="D308" s="9"/>
+      <c r="E308" s="9"/>
+      <c r="F308" s="9"/>
+      <c r="G308" s="9"/>
     </row>
     <row r="309" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <f t="shared" si="4"/>
         <v>743</v>
       </c>
-      <c r="C309" s="8"/>
-      <c r="D309" s="8"/>
-      <c r="E309" s="8"/>
-      <c r="F309" s="8"/>
-      <c r="G309" s="8"/>
+      <c r="C309" s="9"/>
+      <c r="D309" s="9"/>
+      <c r="E309" s="9"/>
+      <c r="F309" s="9"/>
+      <c r="G309" s="9"/>
     </row>
     <row r="310" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <f t="shared" si="4"/>
         <v>742</v>
       </c>
-      <c r="C310" s="8"/>
-      <c r="D310" s="8"/>
-      <c r="E310" s="8"/>
-      <c r="F310" s="8"/>
-      <c r="G310" s="8"/>
+      <c r="C310" s="9"/>
+      <c r="D310" s="9"/>
+      <c r="E310" s="9"/>
+      <c r="F310" s="9"/>
+      <c r="G310" s="9"/>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <f t="shared" si="4"/>
         <v>741</v>
       </c>
-      <c r="C311" s="8"/>
-      <c r="D311" s="8" t="s">
+      <c r="C311" s="9"/>
+      <c r="D311" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E311" s="8"/>
-      <c r="F311" s="8"/>
-      <c r="G311" s="8"/>
-      <c r="H311" s="10" t="s">
+      <c r="E311" s="9"/>
+      <c r="F311" s="9"/>
+      <c r="G311" s="9"/>
+      <c r="H311" s="8" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3934,80 +4021,80 @@
         <f t="shared" si="4"/>
         <v>740</v>
       </c>
-      <c r="C312" s="8"/>
-      <c r="D312" s="8"/>
-      <c r="E312" s="8"/>
-      <c r="F312" s="8"/>
-      <c r="G312" s="8"/>
+      <c r="C312" s="9"/>
+      <c r="D312" s="9"/>
+      <c r="E312" s="9"/>
+      <c r="F312" s="9"/>
+      <c r="G312" s="9"/>
     </row>
     <row r="313" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <f t="shared" si="4"/>
         <v>739</v>
       </c>
-      <c r="B313" s="8" t="s">
+      <c r="B313" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C313" s="8"/>
-      <c r="E313" s="8"/>
-      <c r="G313" s="8"/>
+      <c r="C313" s="9"/>
+      <c r="E313" s="9"/>
+      <c r="G313" s="9"/>
     </row>
     <row r="314" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <f t="shared" si="4"/>
         <v>738</v>
       </c>
-      <c r="B314" s="8"/>
-      <c r="C314" s="8"/>
-      <c r="E314" s="8"/>
-      <c r="G314" s="8"/>
+      <c r="B314" s="9"/>
+      <c r="C314" s="9"/>
+      <c r="E314" s="9"/>
+      <c r="G314" s="9"/>
     </row>
     <row r="315" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <f t="shared" si="4"/>
         <v>737</v>
       </c>
-      <c r="B315" s="8"/>
-      <c r="C315" s="8"/>
-      <c r="E315" s="8"/>
-      <c r="G315" s="8"/>
+      <c r="B315" s="9"/>
+      <c r="C315" s="9"/>
+      <c r="E315" s="9"/>
+      <c r="G315" s="9"/>
     </row>
     <row r="316" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <f t="shared" si="4"/>
         <v>736</v>
       </c>
-      <c r="B316" s="8"/>
-      <c r="C316" s="8"/>
-      <c r="E316" s="8"/>
-      <c r="G316" s="8"/>
+      <c r="B316" s="9"/>
+      <c r="C316" s="9"/>
+      <c r="E316" s="9"/>
+      <c r="G316" s="9"/>
     </row>
     <row r="317" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <f t="shared" si="4"/>
         <v>735</v>
       </c>
-      <c r="B317" s="8"/>
-      <c r="C317" s="8"/>
-      <c r="E317" s="8"/>
-      <c r="G317" s="8"/>
+      <c r="B317" s="9"/>
+      <c r="C317" s="9"/>
+      <c r="E317" s="9"/>
+      <c r="G317" s="9"/>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <f t="shared" si="4"/>
         <v>734</v>
       </c>
-      <c r="B318" s="8"/>
-      <c r="C318" s="8"/>
-      <c r="E318" s="8"/>
-      <c r="F318" s="8" t="s">
+      <c r="B318" s="9"/>
+      <c r="C318" s="9"/>
+      <c r="E318" s="9"/>
+      <c r="F318" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G318" s="8"/>
-      <c r="H318" s="10" t="s">
+      <c r="G318" s="9"/>
+      <c r="H318" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="I318" s="10" t="s">
+      <c r="I318" s="8" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4016,39 +4103,39 @@
         <f t="shared" si="4"/>
         <v>733</v>
       </c>
-      <c r="B319" s="8"/>
-      <c r="C319" s="8"/>
-      <c r="E319" s="8"/>
-      <c r="F319" s="8"/>
-      <c r="G319" s="8"/>
+      <c r="B319" s="9"/>
+      <c r="C319" s="9"/>
+      <c r="E319" s="9"/>
+      <c r="F319" s="9"/>
+      <c r="G319" s="9"/>
     </row>
     <row r="320" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <f t="shared" si="4"/>
         <v>732</v>
       </c>
-      <c r="B320" s="8"/>
-      <c r="C320" s="8"/>
-      <c r="E320" s="8"/>
-      <c r="F320" s="8"/>
-      <c r="G320" s="8"/>
+      <c r="B320" s="9"/>
+      <c r="C320" s="9"/>
+      <c r="E320" s="9"/>
+      <c r="F320" s="9"/>
+      <c r="G320" s="9"/>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <f t="shared" si="4"/>
         <v>731</v>
       </c>
-      <c r="B321" s="8"/>
-      <c r="C321" s="8"/>
-      <c r="D321" s="8" t="s">
+      <c r="B321" s="9"/>
+      <c r="C321" s="9"/>
+      <c r="D321" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E321" s="8"/>
-      <c r="F321" s="8"/>
-      <c r="H321" s="10" t="s">
+      <c r="E321" s="9"/>
+      <c r="F321" s="9"/>
+      <c r="H321" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="I321" s="10" t="s">
+      <c r="I321" s="8" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4057,170 +4144,170 @@
         <f t="shared" si="4"/>
         <v>730</v>
       </c>
-      <c r="B322" s="8"/>
-      <c r="C322" s="8"/>
-      <c r="D322" s="8"/>
-      <c r="E322" s="8"/>
-      <c r="F322" s="8"/>
+      <c r="B322" s="9"/>
+      <c r="C322" s="9"/>
+      <c r="D322" s="9"/>
+      <c r="E322" s="9"/>
+      <c r="F322" s="9"/>
     </row>
     <row r="323" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <f t="shared" si="4"/>
         <v>729</v>
       </c>
-      <c r="B323" s="8"/>
-      <c r="C323" s="8"/>
-      <c r="D323" s="8"/>
-      <c r="E323" s="8"/>
-      <c r="F323" s="8"/>
+      <c r="B323" s="9"/>
+      <c r="C323" s="9"/>
+      <c r="D323" s="9"/>
+      <c r="E323" s="9"/>
+      <c r="F323" s="9"/>
     </row>
     <row r="324" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <f t="shared" ref="A324:A387" si="5">A323-1</f>
         <v>728</v>
       </c>
-      <c r="B324" s="8"/>
-      <c r="C324" s="8"/>
-      <c r="D324" s="8"/>
-      <c r="E324" s="8"/>
-      <c r="F324" s="8"/>
+      <c r="B324" s="9"/>
+      <c r="C324" s="9"/>
+      <c r="D324" s="9"/>
+      <c r="E324" s="9"/>
+      <c r="F324" s="9"/>
     </row>
     <row r="325" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <f t="shared" si="5"/>
         <v>727</v>
       </c>
-      <c r="B325" s="8"/>
-      <c r="C325" s="8"/>
-      <c r="D325" s="8"/>
-      <c r="E325" s="8"/>
-      <c r="F325" s="8"/>
+      <c r="B325" s="9"/>
+      <c r="C325" s="9"/>
+      <c r="D325" s="9"/>
+      <c r="E325" s="9"/>
+      <c r="F325" s="9"/>
     </row>
     <row r="326" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <f t="shared" si="5"/>
         <v>726</v>
       </c>
-      <c r="B326" s="8"/>
-      <c r="C326" s="8"/>
-      <c r="D326" s="8"/>
-      <c r="E326" s="8"/>
-      <c r="F326" s="8"/>
+      <c r="B326" s="9"/>
+      <c r="C326" s="9"/>
+      <c r="D326" s="9"/>
+      <c r="E326" s="9"/>
+      <c r="F326" s="9"/>
     </row>
     <row r="327" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <f t="shared" si="5"/>
         <v>725</v>
       </c>
-      <c r="B327" s="8"/>
-      <c r="C327" s="8"/>
-      <c r="D327" s="8"/>
-      <c r="E327" s="8"/>
-      <c r="F327" s="8"/>
+      <c r="B327" s="9"/>
+      <c r="C327" s="9"/>
+      <c r="D327" s="9"/>
+      <c r="E327" s="9"/>
+      <c r="F327" s="9"/>
     </row>
     <row r="328" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <f t="shared" si="5"/>
         <v>724</v>
       </c>
-      <c r="B328" s="8"/>
-      <c r="C328" s="8"/>
-      <c r="D328" s="8"/>
-      <c r="E328" s="8"/>
-      <c r="F328" s="8"/>
+      <c r="B328" s="9"/>
+      <c r="C328" s="9"/>
+      <c r="D328" s="9"/>
+      <c r="E328" s="9"/>
+      <c r="F328" s="9"/>
     </row>
     <row r="329" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <f t="shared" si="5"/>
         <v>723</v>
       </c>
-      <c r="B329" s="8"/>
-      <c r="C329" s="8"/>
-      <c r="D329" s="8"/>
-      <c r="E329" s="8"/>
-      <c r="F329" s="8"/>
+      <c r="B329" s="9"/>
+      <c r="C329" s="9"/>
+      <c r="D329" s="9"/>
+      <c r="E329" s="9"/>
+      <c r="F329" s="9"/>
     </row>
     <row r="330" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <f t="shared" si="5"/>
         <v>722</v>
       </c>
-      <c r="B330" s="8"/>
-      <c r="C330" s="8"/>
-      <c r="F330" s="8"/>
+      <c r="B330" s="9"/>
+      <c r="C330" s="9"/>
+      <c r="F330" s="9"/>
     </row>
     <row r="331" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <f t="shared" si="5"/>
         <v>721</v>
       </c>
-      <c r="B331" s="8"/>
-      <c r="C331" s="8"/>
-      <c r="F331" s="8"/>
+      <c r="B331" s="9"/>
+      <c r="C331" s="9"/>
+      <c r="F331" s="9"/>
     </row>
     <row r="332" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <f t="shared" si="5"/>
         <v>720</v>
       </c>
-      <c r="B332" s="8"/>
-      <c r="C332" s="8"/>
-      <c r="F332" s="8"/>
+      <c r="B332" s="9"/>
+      <c r="C332" s="9"/>
+      <c r="F332" s="9"/>
     </row>
     <row r="333" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <f t="shared" si="5"/>
         <v>719</v>
       </c>
-      <c r="B333" s="8"/>
-      <c r="C333" s="8"/>
-      <c r="F333" s="8"/>
+      <c r="B333" s="9"/>
+      <c r="C333" s="9"/>
+      <c r="F333" s="9"/>
     </row>
     <row r="334" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <f t="shared" si="5"/>
         <v>718</v>
       </c>
-      <c r="B334" s="8"/>
-      <c r="F334" s="8"/>
+      <c r="B334" s="9"/>
+      <c r="F334" s="9"/>
     </row>
     <row r="335" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <f t="shared" si="5"/>
         <v>717</v>
       </c>
-      <c r="B335" s="8"/>
-      <c r="F335" s="8"/>
+      <c r="B335" s="9"/>
+      <c r="F335" s="9"/>
     </row>
     <row r="336" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <f t="shared" si="5"/>
         <v>716</v>
       </c>
-      <c r="B336" s="8"/>
-      <c r="F336" s="8"/>
+      <c r="B336" s="9"/>
+      <c r="F336" s="9"/>
     </row>
     <row r="337" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <f t="shared" si="5"/>
         <v>715</v>
       </c>
-      <c r="B337" s="8"/>
-      <c r="F337" s="8"/>
+      <c r="B337" s="9"/>
+      <c r="F337" s="9"/>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <f t="shared" si="5"/>
         <v>714</v>
       </c>
-      <c r="B338" s="8"/>
-      <c r="F338" s="8" t="s">
+      <c r="B338" s="9"/>
+      <c r="F338" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="H338" s="10" t="s">
+      <c r="H338" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="I338" s="10" t="s">
+      <c r="I338" s="8" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4229,24 +4316,24 @@
         <f t="shared" si="5"/>
         <v>713</v>
       </c>
-      <c r="B339" s="8"/>
-      <c r="F339" s="8"/>
+      <c r="B339" s="9"/>
+      <c r="F339" s="9"/>
     </row>
     <row r="340" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <f t="shared" si="5"/>
         <v>712</v>
       </c>
-      <c r="B340" s="8"/>
-      <c r="F340" s="8"/>
+      <c r="B340" s="9"/>
+      <c r="F340" s="9"/>
     </row>
     <row r="341" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <f t="shared" si="5"/>
         <v>711</v>
       </c>
-      <c r="B341" s="8"/>
-      <c r="F341" s="8"/>
+      <c r="B341" s="9"/>
+      <c r="F341" s="9"/>
     </row>
     <row r="342" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
@@ -4256,119 +4343,119 @@
       <c r="B342" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F342" s="8"/>
+      <c r="F342" s="9"/>
     </row>
     <row r="343" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <f t="shared" si="5"/>
         <v>709</v>
       </c>
-      <c r="F343" s="8"/>
+      <c r="F343" s="9"/>
     </row>
     <row r="344" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <f t="shared" si="5"/>
         <v>708</v>
       </c>
-      <c r="F344" s="8"/>
+      <c r="F344" s="9"/>
     </row>
     <row r="345" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <f t="shared" si="5"/>
         <v>707</v>
       </c>
-      <c r="F345" s="8"/>
+      <c r="F345" s="9"/>
     </row>
     <row r="346" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <f t="shared" si="5"/>
         <v>706</v>
       </c>
-      <c r="F346" s="8"/>
+      <c r="F346" s="9"/>
     </row>
     <row r="347" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <f t="shared" si="5"/>
         <v>705</v>
       </c>
-      <c r="F347" s="8"/>
+      <c r="F347" s="9"/>
     </row>
     <row r="348" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <f t="shared" si="5"/>
         <v>704</v>
       </c>
-      <c r="F348" s="8"/>
+      <c r="F348" s="9"/>
     </row>
     <row r="349" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <f t="shared" si="5"/>
         <v>703</v>
       </c>
-      <c r="F349" s="8"/>
+      <c r="F349" s="9"/>
     </row>
     <row r="350" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <f t="shared" si="5"/>
         <v>702</v>
       </c>
-      <c r="F350" s="8"/>
+      <c r="F350" s="9"/>
     </row>
     <row r="351" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <f t="shared" si="5"/>
         <v>701</v>
       </c>
-      <c r="F351" s="8"/>
+      <c r="F351" s="9"/>
     </row>
     <row r="352" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <f t="shared" si="5"/>
         <v>700</v>
       </c>
-      <c r="F352" s="8"/>
+      <c r="F352" s="9"/>
     </row>
     <row r="353" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <f t="shared" si="5"/>
         <v>699</v>
       </c>
-      <c r="F353" s="8"/>
+      <c r="F353" s="9"/>
     </row>
     <row r="354" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <f t="shared" si="5"/>
         <v>698</v>
       </c>
-      <c r="F354" s="8"/>
+      <c r="F354" s="9"/>
     </row>
     <row r="355" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <f t="shared" si="5"/>
         <v>697</v>
       </c>
-      <c r="F355" s="8"/>
+      <c r="F355" s="9"/>
     </row>
     <row r="356" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <f t="shared" si="5"/>
         <v>696</v>
       </c>
-      <c r="F356" s="8"/>
+      <c r="F356" s="9"/>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <f t="shared" si="5"/>
         <v>695</v>
       </c>
-      <c r="F357" s="8"/>
-      <c r="G357" s="8" t="s">
+      <c r="F357" s="9"/>
+      <c r="G357" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H357" s="10" t="s">
+      <c r="H357" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="I357" s="10" t="s">
+      <c r="I357" s="8" t="s">
         <v>64</v>
       </c>
     </row>
@@ -4377,394 +4464,394 @@
         <f t="shared" si="5"/>
         <v>694</v>
       </c>
-      <c r="F358" s="8"/>
-      <c r="G358" s="8"/>
+      <c r="F358" s="9"/>
+      <c r="G358" s="9"/>
     </row>
     <row r="359" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <f t="shared" si="5"/>
         <v>693</v>
       </c>
-      <c r="F359" s="8"/>
-      <c r="G359" s="8"/>
+      <c r="F359" s="9"/>
+      <c r="G359" s="9"/>
     </row>
     <row r="360" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <f t="shared" si="5"/>
         <v>692</v>
       </c>
-      <c r="F360" s="8"/>
-      <c r="G360" s="8"/>
+      <c r="F360" s="9"/>
+      <c r="G360" s="9"/>
     </row>
     <row r="361" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <f t="shared" si="5"/>
         <v>691</v>
       </c>
-      <c r="F361" s="8"/>
-      <c r="G361" s="8"/>
+      <c r="F361" s="9"/>
+      <c r="G361" s="9"/>
     </row>
     <row r="362" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <f t="shared" si="5"/>
         <v>690</v>
       </c>
-      <c r="F362" s="8"/>
-      <c r="G362" s="8"/>
+      <c r="F362" s="9"/>
+      <c r="G362" s="9"/>
     </row>
     <row r="363" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <f t="shared" si="5"/>
         <v>689</v>
       </c>
-      <c r="F363" s="8"/>
-      <c r="G363" s="8"/>
+      <c r="F363" s="9"/>
+      <c r="G363" s="9"/>
     </row>
     <row r="364" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <f t="shared" si="5"/>
         <v>688</v>
       </c>
-      <c r="F364" s="8"/>
-      <c r="G364" s="8"/>
+      <c r="F364" s="9"/>
+      <c r="G364" s="9"/>
     </row>
     <row r="365" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <f t="shared" si="5"/>
         <v>687</v>
       </c>
-      <c r="F365" s="8"/>
-      <c r="G365" s="8"/>
+      <c r="F365" s="9"/>
+      <c r="G365" s="9"/>
     </row>
     <row r="366" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <f t="shared" si="5"/>
         <v>686</v>
       </c>
-      <c r="F366" s="8"/>
-      <c r="G366" s="8"/>
+      <c r="F366" s="9"/>
+      <c r="G366" s="9"/>
     </row>
     <row r="367" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <f t="shared" si="5"/>
         <v>685</v>
       </c>
-      <c r="G367" s="8"/>
+      <c r="G367" s="9"/>
     </row>
     <row r="368" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <f t="shared" si="5"/>
         <v>684</v>
       </c>
-      <c r="G368" s="8"/>
+      <c r="G368" s="9"/>
     </row>
     <row r="369" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <f t="shared" si="5"/>
         <v>683</v>
       </c>
-      <c r="G369" s="8"/>
+      <c r="G369" s="9"/>
     </row>
     <row r="370" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <f t="shared" si="5"/>
         <v>682</v>
       </c>
-      <c r="G370" s="8"/>
+      <c r="G370" s="9"/>
     </row>
     <row r="371" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <f t="shared" si="5"/>
         <v>681</v>
       </c>
-      <c r="G371" s="8"/>
+      <c r="G371" s="9"/>
     </row>
     <row r="372" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <f t="shared" si="5"/>
         <v>680</v>
       </c>
-      <c r="G372" s="8"/>
+      <c r="G372" s="9"/>
     </row>
     <row r="373" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <f t="shared" si="5"/>
         <v>679</v>
       </c>
-      <c r="G373" s="8"/>
+      <c r="G373" s="9"/>
     </row>
     <row r="374" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <f t="shared" si="5"/>
         <v>678</v>
       </c>
-      <c r="G374" s="8"/>
+      <c r="G374" s="9"/>
     </row>
     <row r="375" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <f t="shared" si="5"/>
         <v>677</v>
       </c>
-      <c r="G375" s="8"/>
+      <c r="G375" s="9"/>
     </row>
     <row r="376" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <f t="shared" si="5"/>
         <v>676</v>
       </c>
-      <c r="G376" s="8"/>
+      <c r="G376" s="9"/>
     </row>
     <row r="377" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <f t="shared" si="5"/>
         <v>675</v>
       </c>
-      <c r="G377" s="8"/>
+      <c r="G377" s="9"/>
     </row>
     <row r="378" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <f t="shared" si="5"/>
         <v>674</v>
       </c>
-      <c r="G378" s="8"/>
+      <c r="G378" s="9"/>
     </row>
     <row r="379" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <f t="shared" si="5"/>
         <v>673</v>
       </c>
-      <c r="G379" s="8"/>
+      <c r="G379" s="9"/>
     </row>
     <row r="380" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <f t="shared" si="5"/>
         <v>672</v>
       </c>
-      <c r="G380" s="8"/>
+      <c r="G380" s="9"/>
     </row>
     <row r="381" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <f t="shared" si="5"/>
         <v>671</v>
       </c>
-      <c r="G381" s="8"/>
+      <c r="G381" s="9"/>
     </row>
     <row r="382" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <f t="shared" si="5"/>
         <v>670</v>
       </c>
-      <c r="G382" s="8"/>
+      <c r="G382" s="9"/>
     </row>
     <row r="383" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <f t="shared" si="5"/>
         <v>669</v>
       </c>
-      <c r="G383" s="8"/>
+      <c r="G383" s="9"/>
     </row>
     <row r="384" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <f t="shared" si="5"/>
         <v>668</v>
       </c>
-      <c r="G384" s="8"/>
+      <c r="G384" s="9"/>
     </row>
     <row r="385" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <f t="shared" si="5"/>
         <v>667</v>
       </c>
-      <c r="G385" s="8"/>
+      <c r="G385" s="9"/>
     </row>
     <row r="386" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <f t="shared" si="5"/>
         <v>666</v>
       </c>
-      <c r="G386" s="8"/>
+      <c r="G386" s="9"/>
     </row>
     <row r="387" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <f t="shared" si="5"/>
         <v>665</v>
       </c>
-      <c r="G387" s="8"/>
+      <c r="G387" s="9"/>
     </row>
     <row r="388" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <f t="shared" ref="A388:A451" si="6">A387-1</f>
         <v>664</v>
       </c>
-      <c r="G388" s="8"/>
+      <c r="G388" s="9"/>
     </row>
     <row r="389" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <f t="shared" si="6"/>
         <v>663</v>
       </c>
-      <c r="G389" s="8"/>
+      <c r="G389" s="9"/>
     </row>
     <row r="390" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <f t="shared" si="6"/>
         <v>662</v>
       </c>
-      <c r="G390" s="8"/>
+      <c r="G390" s="9"/>
     </row>
     <row r="391" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <f t="shared" si="6"/>
         <v>661</v>
       </c>
-      <c r="G391" s="8"/>
+      <c r="G391" s="9"/>
     </row>
     <row r="392" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <f t="shared" si="6"/>
         <v>660</v>
       </c>
-      <c r="G392" s="8"/>
+      <c r="G392" s="9"/>
     </row>
     <row r="393" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <f t="shared" si="6"/>
         <v>659</v>
       </c>
-      <c r="G393" s="8"/>
+      <c r="G393" s="9"/>
     </row>
     <row r="394" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <f t="shared" si="6"/>
         <v>658</v>
       </c>
-      <c r="G394" s="8"/>
+      <c r="G394" s="9"/>
     </row>
     <row r="395" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <f t="shared" si="6"/>
         <v>657</v>
       </c>
-      <c r="G395" s="8"/>
+      <c r="G395" s="9"/>
     </row>
     <row r="396" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <f t="shared" si="6"/>
         <v>656</v>
       </c>
-      <c r="G396" s="8"/>
+      <c r="G396" s="9"/>
     </row>
     <row r="397" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <f t="shared" si="6"/>
         <v>655</v>
       </c>
-      <c r="G397" s="8"/>
+      <c r="G397" s="9"/>
     </row>
     <row r="398" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <f t="shared" si="6"/>
         <v>654</v>
       </c>
-      <c r="G398" s="8"/>
+      <c r="G398" s="9"/>
     </row>
     <row r="399" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <f t="shared" si="6"/>
         <v>653</v>
       </c>
-      <c r="G399" s="8"/>
+      <c r="G399" s="9"/>
     </row>
     <row r="400" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <f t="shared" si="6"/>
         <v>652</v>
       </c>
-      <c r="G400" s="8"/>
+      <c r="G400" s="9"/>
     </row>
     <row r="401" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <f t="shared" si="6"/>
         <v>651</v>
       </c>
-      <c r="G401" s="8"/>
+      <c r="G401" s="9"/>
     </row>
     <row r="402" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <f t="shared" si="6"/>
         <v>650</v>
       </c>
-      <c r="G402" s="8"/>
+      <c r="G402" s="9"/>
     </row>
     <row r="403" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <f t="shared" si="6"/>
         <v>649</v>
       </c>
-      <c r="G403" s="8"/>
+      <c r="G403" s="9"/>
     </row>
     <row r="404" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <f t="shared" si="6"/>
         <v>648</v>
       </c>
-      <c r="G404" s="8"/>
+      <c r="G404" s="9"/>
     </row>
     <row r="405" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <f t="shared" si="6"/>
         <v>647</v>
       </c>
-      <c r="G405" s="8"/>
+      <c r="G405" s="9"/>
     </row>
     <row r="406" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <f t="shared" si="6"/>
         <v>646</v>
       </c>
-      <c r="G406" s="8"/>
+      <c r="G406" s="9"/>
     </row>
     <row r="407" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <f t="shared" si="6"/>
         <v>645</v>
       </c>
-      <c r="G407" s="8"/>
+      <c r="G407" s="9"/>
     </row>
     <row r="408" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <f t="shared" si="6"/>
         <v>644</v>
       </c>
-      <c r="G408" s="8"/>
+      <c r="G408" s="9"/>
     </row>
     <row r="409" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <f t="shared" si="6"/>
         <v>643</v>
       </c>
-      <c r="G409" s="8"/>
+      <c r="G409" s="9"/>
     </row>
     <row r="410" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <f t="shared" si="6"/>
         <v>642</v>
       </c>
-      <c r="G410" s="8"/>
+      <c r="G410" s="9"/>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <f t="shared" si="6"/>
         <v>641</v>
       </c>
-      <c r="F411" s="8" t="s">
+      <c r="F411" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G411" s="8"/>
-      <c r="H411" s="10" t="s">
+      <c r="G411" s="9"/>
+      <c r="H411" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="I411" s="10" t="s">
+      <c r="I411" s="8" t="s">
         <v>64</v>
       </c>
     </row>
@@ -4773,21 +4860,21 @@
         <f t="shared" si="6"/>
         <v>640</v>
       </c>
-      <c r="F412" s="8"/>
-      <c r="G412" s="8"/>
+      <c r="F412" s="9"/>
+      <c r="G412" s="9"/>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <f t="shared" si="6"/>
         <v>639</v>
       </c>
-      <c r="F413" s="8" t="s">
+      <c r="F413" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="H413" s="10" t="s">
+      <c r="H413" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="I413" s="10" t="s">
+      <c r="I413" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4796,84 +4883,84 @@
         <f t="shared" si="6"/>
         <v>638</v>
       </c>
-      <c r="F414" s="8"/>
+      <c r="F414" s="9"/>
     </row>
     <row r="415" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <f t="shared" si="6"/>
         <v>637</v>
       </c>
-      <c r="F415" s="8"/>
+      <c r="F415" s="9"/>
     </row>
     <row r="416" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <f t="shared" si="6"/>
         <v>636</v>
       </c>
-      <c r="F416" s="8"/>
+      <c r="F416" s="9"/>
     </row>
     <row r="417" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <f t="shared" si="6"/>
         <v>635</v>
       </c>
-      <c r="F417" s="8"/>
+      <c r="F417" s="9"/>
     </row>
     <row r="418" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <f t="shared" si="6"/>
         <v>634</v>
       </c>
-      <c r="F418" s="8"/>
+      <c r="F418" s="9"/>
     </row>
     <row r="419" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <f t="shared" si="6"/>
         <v>633</v>
       </c>
-      <c r="F419" s="8"/>
+      <c r="F419" s="9"/>
     </row>
     <row r="420" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <f t="shared" si="6"/>
         <v>632</v>
       </c>
-      <c r="F420" s="8"/>
+      <c r="F420" s="9"/>
     </row>
     <row r="421" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <f t="shared" si="6"/>
         <v>631</v>
       </c>
-      <c r="F421" s="8"/>
+      <c r="F421" s="9"/>
     </row>
     <row r="422" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <f t="shared" si="6"/>
         <v>630</v>
       </c>
-      <c r="F422" s="8"/>
+      <c r="F422" s="9"/>
     </row>
     <row r="423" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <f t="shared" si="6"/>
         <v>629</v>
       </c>
-      <c r="F423" s="8"/>
+      <c r="F423" s="9"/>
     </row>
     <row r="424" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <f t="shared" si="6"/>
         <v>628</v>
       </c>
-      <c r="F424" s="8"/>
+      <c r="F424" s="9"/>
     </row>
     <row r="425" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <f t="shared" si="6"/>
         <v>627</v>
       </c>
-      <c r="F425" s="8"/>
+      <c r="F425" s="9"/>
     </row>
     <row r="426" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
@@ -4886,133 +4973,133 @@
       <c r="C426" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F426" s="8"/>
+      <c r="F426" s="9"/>
     </row>
     <row r="427" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <f t="shared" si="6"/>
         <v>625</v>
       </c>
-      <c r="F427" s="8"/>
+      <c r="F427" s="9"/>
     </row>
     <row r="428" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <f t="shared" si="6"/>
         <v>624</v>
       </c>
-      <c r="F428" s="8"/>
+      <c r="F428" s="9"/>
     </row>
     <row r="429" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <f t="shared" si="6"/>
         <v>623</v>
       </c>
-      <c r="F429" s="8"/>
+      <c r="F429" s="9"/>
     </row>
     <row r="430" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <f t="shared" si="6"/>
         <v>622</v>
       </c>
-      <c r="F430" s="8"/>
+      <c r="F430" s="9"/>
     </row>
     <row r="431" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <f t="shared" si="6"/>
         <v>621</v>
       </c>
-      <c r="F431" s="8"/>
+      <c r="F431" s="9"/>
     </row>
     <row r="432" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <f t="shared" si="6"/>
         <v>620</v>
       </c>
-      <c r="F432" s="8"/>
+      <c r="F432" s="9"/>
     </row>
     <row r="433" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <f t="shared" si="6"/>
         <v>619</v>
       </c>
-      <c r="F433" s="8"/>
+      <c r="F433" s="9"/>
     </row>
     <row r="434" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <f t="shared" si="6"/>
         <v>618</v>
       </c>
-      <c r="F434" s="8"/>
+      <c r="F434" s="9"/>
     </row>
     <row r="435" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <f t="shared" si="6"/>
         <v>617</v>
       </c>
-      <c r="F435" s="8"/>
+      <c r="F435" s="9"/>
     </row>
     <row r="436" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <f t="shared" si="6"/>
         <v>616</v>
       </c>
-      <c r="F436" s="8"/>
+      <c r="F436" s="9"/>
     </row>
     <row r="437" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <f t="shared" si="6"/>
         <v>615</v>
       </c>
-      <c r="F437" s="8"/>
+      <c r="F437" s="9"/>
     </row>
     <row r="438" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <f t="shared" si="6"/>
         <v>614</v>
       </c>
-      <c r="F438" s="8"/>
+      <c r="F438" s="9"/>
     </row>
     <row r="439" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <f t="shared" si="6"/>
         <v>613</v>
       </c>
-      <c r="F439" s="8"/>
+      <c r="F439" s="9"/>
     </row>
     <row r="440" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <f t="shared" si="6"/>
         <v>612</v>
       </c>
-      <c r="F440" s="8"/>
+      <c r="F440" s="9"/>
     </row>
     <row r="441" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <f t="shared" si="6"/>
         <v>611</v>
       </c>
-      <c r="F441" s="8"/>
+      <c r="F441" s="9"/>
     </row>
     <row r="442" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
         <f t="shared" si="6"/>
         <v>610</v>
       </c>
-      <c r="F442" s="8"/>
+      <c r="F442" s="9"/>
     </row>
     <row r="443" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <f t="shared" si="6"/>
         <v>609</v>
       </c>
-      <c r="F443" s="8"/>
+      <c r="F443" s="9"/>
       <c r="G443" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H443" s="10" t="s">
+      <c r="H443" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="I443" s="10" t="s">
+      <c r="I443" s="8" t="s">
         <v>68</v>
       </c>
     </row>
@@ -5021,14 +5108,14 @@
         <f t="shared" si="6"/>
         <v>608</v>
       </c>
-      <c r="F444" s="8" t="s">
+      <c r="F444" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G444" s="8"/>
-      <c r="H444" s="10" t="s">
+      <c r="G444" s="9"/>
+      <c r="H444" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="I444" s="10" t="s">
+      <c r="I444" s="8" t="s">
         <v>68</v>
       </c>
     </row>
@@ -5037,94 +5124,94 @@
         <f t="shared" si="6"/>
         <v>607</v>
       </c>
-      <c r="F445" s="8"/>
-      <c r="G445" s="8"/>
+      <c r="F445" s="9"/>
+      <c r="G445" s="9"/>
     </row>
     <row r="446" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <f t="shared" si="6"/>
         <v>606</v>
       </c>
-      <c r="F446" s="8"/>
-      <c r="G446" s="8"/>
+      <c r="F446" s="9"/>
+      <c r="G446" s="9"/>
     </row>
     <row r="447" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <f t="shared" si="6"/>
         <v>605</v>
       </c>
-      <c r="F447" s="8"/>
-      <c r="G447" s="8"/>
+      <c r="F447" s="9"/>
+      <c r="G447" s="9"/>
     </row>
     <row r="448" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
         <f t="shared" si="6"/>
         <v>604</v>
       </c>
-      <c r="F448" s="8"/>
-      <c r="G448" s="8"/>
+      <c r="F448" s="9"/>
+      <c r="G448" s="9"/>
     </row>
     <row r="449" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <f t="shared" si="6"/>
         <v>603</v>
       </c>
-      <c r="F449" s="8"/>
-      <c r="G449" s="8"/>
+      <c r="F449" s="9"/>
+      <c r="G449" s="9"/>
     </row>
     <row r="450" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
         <f t="shared" si="6"/>
         <v>602</v>
       </c>
-      <c r="F450" s="8"/>
-      <c r="G450" s="8"/>
+      <c r="F450" s="9"/>
+      <c r="G450" s="9"/>
     </row>
     <row r="451" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
         <f t="shared" si="6"/>
         <v>601</v>
       </c>
-      <c r="F451" s="8"/>
-      <c r="G451" s="8"/>
+      <c r="F451" s="9"/>
+      <c r="G451" s="9"/>
     </row>
     <row r="452" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="1">
         <f t="shared" ref="A452:A515" si="7">A451-1</f>
         <v>600</v>
       </c>
-      <c r="F452" s="8"/>
-      <c r="G452" s="8"/>
+      <c r="F452" s="9"/>
+      <c r="G452" s="9"/>
     </row>
     <row r="453" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
         <f t="shared" si="7"/>
         <v>599</v>
       </c>
-      <c r="F453" s="8"/>
-      <c r="G453" s="8"/>
+      <c r="F453" s="9"/>
+      <c r="G453" s="9"/>
     </row>
     <row r="454" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="1">
         <f t="shared" si="7"/>
         <v>598</v>
       </c>
-      <c r="F454" s="8"/>
-      <c r="G454" s="8"/>
+      <c r="F454" s="9"/>
+      <c r="G454" s="9"/>
     </row>
     <row r="455" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
         <f t="shared" si="7"/>
         <v>597</v>
       </c>
-      <c r="F455" s="8" t="s">
+      <c r="F455" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G455" s="8"/>
-      <c r="H455" s="10" t="s">
+      <c r="G455" s="9"/>
+      <c r="H455" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="I455" s="10" t="s">
+      <c r="I455" s="8" t="s">
         <v>68</v>
       </c>
     </row>
@@ -5133,17 +5220,17 @@
         <f t="shared" si="7"/>
         <v>596</v>
       </c>
-      <c r="B456" s="8" t="s">
+      <c r="B456" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F456" s="8" t="s">
+      <c r="F456" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G456" s="8"/>
-      <c r="H456" s="10" t="s">
+      <c r="G456" s="9"/>
+      <c r="H456" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="I456" s="10" t="s">
+      <c r="I456" s="8" t="s">
         <v>68</v>
       </c>
     </row>
@@ -5152,269 +5239,309 @@
         <f t="shared" si="7"/>
         <v>595</v>
       </c>
-      <c r="B457" s="8"/>
-      <c r="F457" s="8"/>
-      <c r="G457" s="8"/>
+      <c r="B457" s="9"/>
+      <c r="F457" s="9"/>
+      <c r="G457" s="9"/>
     </row>
     <row r="458" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
         <f t="shared" si="7"/>
         <v>594</v>
       </c>
-      <c r="B458" s="8"/>
-      <c r="F458" s="8"/>
-      <c r="G458" s="8"/>
+      <c r="B458" s="9"/>
+      <c r="F458" s="9"/>
+      <c r="G458" s="9"/>
     </row>
     <row r="459" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
         <f t="shared" si="7"/>
         <v>593</v>
       </c>
-      <c r="B459" s="8"/>
-      <c r="F459" s="8"/>
-      <c r="G459" s="8"/>
+      <c r="B459" s="9"/>
+      <c r="F459" s="9"/>
+      <c r="G459" s="9"/>
     </row>
     <row r="460" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="1">
         <f t="shared" si="7"/>
         <v>592</v>
       </c>
-      <c r="B460" s="8"/>
-      <c r="F460" s="8"/>
-      <c r="G460" s="8"/>
+      <c r="B460" s="9"/>
+      <c r="F460" s="9"/>
+      <c r="G460" s="9"/>
     </row>
     <row r="461" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
         <f t="shared" si="7"/>
         <v>591</v>
       </c>
-      <c r="B461" s="8"/>
-      <c r="F461" s="8"/>
-      <c r="G461" s="8"/>
+      <c r="B461" s="9"/>
+      <c r="F461" s="9"/>
+      <c r="G461" s="9"/>
     </row>
     <row r="462" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="1">
         <f t="shared" si="7"/>
         <v>590</v>
       </c>
-      <c r="B462" s="8"/>
+      <c r="B462" s="9"/>
       <c r="C462" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F462" s="8"/>
-      <c r="G462" s="8"/>
+      <c r="F462" s="9"/>
+      <c r="G462" s="9"/>
     </row>
     <row r="463" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
         <f t="shared" si="7"/>
         <v>589</v>
       </c>
-      <c r="B463" s="8"/>
-      <c r="F463" s="8"/>
-      <c r="G463" s="8"/>
+      <c r="B463" s="9"/>
+      <c r="C463" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F463" s="9"/>
+      <c r="G463" s="9"/>
     </row>
     <row r="464" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="1">
         <f t="shared" si="7"/>
         <v>588</v>
       </c>
-      <c r="B464" s="8"/>
-      <c r="F464" s="8"/>
-      <c r="G464" s="8"/>
+      <c r="B464" s="9"/>
+      <c r="C464" s="12"/>
+      <c r="F464" s="9"/>
+      <c r="G464" s="9"/>
     </row>
     <row r="465" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
         <f t="shared" si="7"/>
         <v>587</v>
       </c>
-      <c r="B465" s="8"/>
-      <c r="F465" s="8"/>
-      <c r="G465" s="8"/>
+      <c r="B465" s="9"/>
+      <c r="C465" s="12"/>
+      <c r="F465" s="9"/>
+      <c r="G465" s="9"/>
     </row>
     <row r="466" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
         <f t="shared" si="7"/>
         <v>586</v>
       </c>
-      <c r="B466" s="8"/>
-      <c r="F466" s="8"/>
-      <c r="G466" s="8"/>
+      <c r="B466" s="9"/>
+      <c r="C466" s="12"/>
+      <c r="F466" s="9"/>
+      <c r="G466" s="9"/>
     </row>
     <row r="467" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
         <f t="shared" si="7"/>
         <v>585</v>
       </c>
+      <c r="B467" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C467" s="12"/>
     </row>
     <row r="468" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <f t="shared" si="7"/>
         <v>584</v>
       </c>
+      <c r="B468" s="15"/>
+      <c r="C468" s="12"/>
     </row>
     <row r="469" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <f t="shared" si="7"/>
         <v>583</v>
       </c>
+      <c r="B469" s="15"/>
+      <c r="C469" s="12"/>
     </row>
     <row r="470" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
         <f t="shared" si="7"/>
         <v>582</v>
       </c>
+      <c r="B470" s="15"/>
+      <c r="C470" s="12"/>
     </row>
     <row r="471" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <f t="shared" si="7"/>
         <v>581</v>
       </c>
+      <c r="B471" s="15"/>
+      <c r="C471" s="12"/>
     </row>
     <row r="472" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
         <f t="shared" si="7"/>
         <v>580</v>
       </c>
+      <c r="B472" s="15"/>
+      <c r="C472" s="12"/>
     </row>
     <row r="473" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
         <f t="shared" si="7"/>
         <v>579</v>
       </c>
+      <c r="B473" s="15"/>
+      <c r="C473" s="12"/>
     </row>
     <row r="474" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
         <f t="shared" si="7"/>
         <v>578</v>
       </c>
+      <c r="B474" s="15"/>
+      <c r="C474" s="12"/>
     </row>
     <row r="475" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
         <f t="shared" si="7"/>
         <v>577</v>
       </c>
+      <c r="B475" s="15"/>
+      <c r="C475" s="12"/>
     </row>
     <row r="476" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
         <f t="shared" si="7"/>
         <v>576</v>
       </c>
+      <c r="B476" s="15"/>
+      <c r="C476" s="12"/>
     </row>
     <row r="477" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
         <f t="shared" si="7"/>
         <v>575</v>
       </c>
+      <c r="B477" s="15"/>
+      <c r="C477" s="12"/>
     </row>
     <row r="478" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
         <f t="shared" si="7"/>
         <v>574</v>
       </c>
+      <c r="B478" s="15"/>
+      <c r="C478" s="12"/>
     </row>
     <row r="479" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="1">
         <f t="shared" si="7"/>
         <v>573</v>
       </c>
+      <c r="B479" s="15"/>
+      <c r="C479" s="12"/>
     </row>
     <row r="480" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="1">
         <f t="shared" si="7"/>
         <v>572</v>
       </c>
-    </row>
-    <row r="481" spans="1:1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B480" s="15"/>
+      <c r="C480" s="12"/>
+    </row>
+    <row r="481" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="1">
         <f t="shared" si="7"/>
         <v>571</v>
       </c>
-    </row>
-    <row r="482" spans="1:1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B481" s="15"/>
+      <c r="C481" s="12"/>
+    </row>
+    <row r="482" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
         <f t="shared" si="7"/>
         <v>570</v>
       </c>
-    </row>
-    <row r="483" spans="1:1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B482" s="16"/>
+      <c r="C482" s="13"/>
+    </row>
+    <row r="483" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
         <f t="shared" si="7"/>
         <v>569</v>
       </c>
     </row>
-    <row r="484" spans="1:1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" s="1">
         <f t="shared" si="7"/>
         <v>568</v>
       </c>
     </row>
-    <row r="485" spans="1:1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
         <f t="shared" si="7"/>
         <v>567</v>
       </c>
     </row>
-    <row r="486" spans="1:1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
         <f t="shared" si="7"/>
         <v>566</v>
       </c>
     </row>
-    <row r="487" spans="1:1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
         <f t="shared" si="7"/>
         <v>565</v>
       </c>
     </row>
-    <row r="488" spans="1:1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" s="1">
         <f t="shared" si="7"/>
         <v>564</v>
       </c>
     </row>
-    <row r="489" spans="1:1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
         <f t="shared" si="7"/>
         <v>563</v>
       </c>
     </row>
-    <row r="490" spans="1:1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A490" s="1">
         <f t="shared" si="7"/>
         <v>562</v>
       </c>
     </row>
-    <row r="491" spans="1:1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
         <f t="shared" si="7"/>
         <v>561</v>
       </c>
     </row>
-    <row r="492" spans="1:1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
         <f t="shared" si="7"/>
         <v>560</v>
       </c>
     </row>
-    <row r="493" spans="1:1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493" s="1">
         <f t="shared" si="7"/>
         <v>559</v>
       </c>
     </row>
-    <row r="494" spans="1:1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" s="1">
         <f t="shared" si="7"/>
         <v>558</v>
       </c>
     </row>
-    <row r="495" spans="1:1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A495" s="1">
         <f t="shared" si="7"/>
         <v>557</v>
       </c>
     </row>
-    <row r="496" spans="1:1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" s="1">
         <f t="shared" si="7"/>
         <v>556</v>
@@ -5638,7 +5765,7 @@
       <c r="B532" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C532" s="8" t="s">
+      <c r="C532" s="9" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5647,14 +5774,14 @@
         <f t="shared" si="8"/>
         <v>519</v>
       </c>
-      <c r="C533" s="8"/>
+      <c r="C533" s="9"/>
     </row>
     <row r="534" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A534" s="1">
         <f t="shared" si="8"/>
         <v>518</v>
       </c>
-      <c r="C534" s="8"/>
+      <c r="C534" s="9"/>
     </row>
     <row r="535" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A535" s="1">
@@ -7658,7 +7785,36 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="43">
+    <mergeCell ref="D2:G42"/>
+    <mergeCell ref="D43:G82"/>
+    <mergeCell ref="D83:G122"/>
+    <mergeCell ref="D123:E143"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="F123:G139"/>
+    <mergeCell ref="F140:G142"/>
+    <mergeCell ref="F143:F183"/>
+    <mergeCell ref="G181:G204"/>
+    <mergeCell ref="F200:F211"/>
+    <mergeCell ref="D239:E254"/>
+    <mergeCell ref="D255:E270"/>
+    <mergeCell ref="D271:E299"/>
+    <mergeCell ref="D301:D310"/>
+    <mergeCell ref="E301:E320"/>
+    <mergeCell ref="D311:D312"/>
+    <mergeCell ref="D212:E238"/>
+    <mergeCell ref="D145:E166"/>
+    <mergeCell ref="D168:D172"/>
+    <mergeCell ref="E168:E178"/>
+    <mergeCell ref="D179:E199"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="D201:E211"/>
+    <mergeCell ref="F212:G217"/>
+    <mergeCell ref="F218:G256"/>
+    <mergeCell ref="F257:G285"/>
+    <mergeCell ref="F286:F312"/>
+    <mergeCell ref="G303:G320"/>
+    <mergeCell ref="F318:F337"/>
     <mergeCell ref="F456:G466"/>
     <mergeCell ref="B313:B341"/>
     <mergeCell ref="B456:B466"/>
@@ -7671,42 +7827,15 @@
     <mergeCell ref="F444:G454"/>
     <mergeCell ref="F455:G455"/>
     <mergeCell ref="D321:E329"/>
-    <mergeCell ref="F212:G217"/>
-    <mergeCell ref="F218:G256"/>
-    <mergeCell ref="F257:G285"/>
-    <mergeCell ref="F286:F312"/>
-    <mergeCell ref="G303:G320"/>
-    <mergeCell ref="F318:F337"/>
-    <mergeCell ref="D212:E238"/>
-    <mergeCell ref="D145:E166"/>
-    <mergeCell ref="D168:D172"/>
-    <mergeCell ref="E168:E178"/>
-    <mergeCell ref="D179:E199"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="D201:E211"/>
-    <mergeCell ref="D239:E254"/>
-    <mergeCell ref="D255:E270"/>
-    <mergeCell ref="D271:E299"/>
-    <mergeCell ref="D301:D310"/>
-    <mergeCell ref="E301:E320"/>
-    <mergeCell ref="D311:D312"/>
-    <mergeCell ref="D2:G42"/>
-    <mergeCell ref="D43:G82"/>
-    <mergeCell ref="D83:G122"/>
-    <mergeCell ref="D123:E143"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="F123:G139"/>
-    <mergeCell ref="F140:G142"/>
-    <mergeCell ref="F143:F183"/>
-    <mergeCell ref="G181:G204"/>
-    <mergeCell ref="F200:F211"/>
+    <mergeCell ref="B467:B482"/>
+    <mergeCell ref="C463:C482"/>
   </mergeCells>
   <conditionalFormatting sqref="B2">
     <cfRule type="expression" dxfId="2" priority="2">
       <formula>IF(LEN(B2)&gt;0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:G888">
+  <conditionalFormatting sqref="B2:G463 B483:G888 B464:B467 D464:G482">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>IF(LEN(B2)&gt;0,TRUE,FALSE)</formula>
     </cfRule>
@@ -7720,7 +7849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -7744,14 +7873,14 @@
         <v>24</v>
       </c>
       <c r="C1" s="6"/>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="H1" s="9" t="s">
+      <c r="E1" s="10"/>
+      <c r="H1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="9"/>
+      <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
@@ -7759,20 +7888,20 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="8"/>
+      <c r="E2" s="9"/>
       <c r="F2" s="2" t="s">
         <v>70</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="8"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -7780,12 +7909,12 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
@@ -7793,18 +7922,18 @@
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
       <c r="F4" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="8"/>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -7812,12 +7941,12 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -7825,18 +7954,18 @@
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="E6" s="9"/>
       <c r="F6" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -7844,12 +7973,12 @@
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -7859,33 +7988,33 @@
         <v>18</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="8"/>
+      <c r="E8" s="9"/>
       <c r="F8" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>796</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -7894,91 +8023,91 @@
       <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
       <c r="F10" s="2" t="s">
         <v>56</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="I10" s="8"/>
+      <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>794</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>782</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>781</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8" t="s">
+      <c r="C13" s="9"/>
+      <c r="D13" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="8"/>
+      <c r="E13" s="9"/>
       <c r="F13" s="2" t="s">
         <v>56</v>
       </c>
       <c r="G13" s="2"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>767</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>766</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
       <c r="F15" s="2" t="s">
         <v>57</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="9" t="s">
         <v>47</v>
       </c>
       <c r="I15" s="3"/>
@@ -7988,12 +8117,12 @@
         <v>753</v>
       </c>
       <c r="B16" s="3"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="8"/>
+      <c r="H16" s="9"/>
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -8001,7 +8130,7 @@
         <v>752</v>
       </c>
       <c r="B17" s="3"/>
-      <c r="C17" s="8"/>
+      <c r="C17" s="9"/>
       <c r="D17" s="3" t="s">
         <v>11</v>
       </c>
@@ -8014,7 +8143,7 @@
       <c r="G17" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H17" s="8"/>
+      <c r="H17" s="9"/>
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -8022,16 +8151,16 @@
         <v>751</v>
       </c>
       <c r="B18" s="3"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8" t="s">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="9" t="s">
         <v>37</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="8"/>
+      <c r="H18" s="9"/>
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -8039,12 +8168,12 @@
         <v>750</v>
       </c>
       <c r="B19" s="3"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="8"/>
+      <c r="H19" s="9"/>
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -8052,13 +8181,13 @@
         <v>749</v>
       </c>
       <c r="B20" s="3"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8" t="s">
+      <c r="H20" s="9"/>
+      <c r="I20" s="9" t="s">
         <v>25</v>
       </c>
     </row>
@@ -8067,161 +8196,161 @@
         <v>742</v>
       </c>
       <c r="B21" s="3"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>741</v>
       </c>
       <c r="B22" s="3"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8" t="s">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="8"/>
+      <c r="E22" s="9"/>
       <c r="F22" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G22" s="2"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>740</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>739</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="8"/>
+      <c r="C24" s="9"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="8"/>
+      <c r="E24" s="9"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="8"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>732</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="8"/>
+      <c r="E25" s="9"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>731</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8" t="s">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="8"/>
+      <c r="E26" s="9"/>
       <c r="F26" s="2" t="s">
         <v>77</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H26" s="8"/>
+      <c r="H26" s="9"/>
       <c r="I26" s="3"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>723</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="8"/>
+      <c r="H27" s="9"/>
       <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>722</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="8"/>
+      <c r="H28" s="9"/>
       <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>719</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-      <c r="H29" s="8"/>
+      <c r="H29" s="9"/>
       <c r="I29" s="3"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>718</v>
       </c>
-      <c r="B30" s="8"/>
+      <c r="B30" s="9"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-      <c r="H30" s="8"/>
+      <c r="H30" s="9"/>
       <c r="I30" s="3"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>715</v>
       </c>
-      <c r="B31" s="8"/>
+      <c r="B31" s="9"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-      <c r="H31" s="8"/>
+      <c r="H31" s="9"/>
       <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>714</v>
       </c>
-      <c r="B32" s="8"/>
+      <c r="B32" s="9"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -8231,7 +8360,7 @@
       <c r="G32" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H32" s="8" t="s">
+      <c r="H32" s="9" t="s">
         <v>48</v>
       </c>
       <c r="I32" s="3"/>
@@ -8240,13 +8369,13 @@
       <c r="A33" s="1">
         <v>711</v>
       </c>
-      <c r="B33" s="8"/>
+      <c r="B33" s="9"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="8"/>
+      <c r="H33" s="9"/>
       <c r="I33" s="3"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -8261,7 +8390,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="8"/>
+      <c r="H34" s="9"/>
       <c r="I34" s="3"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -8274,7 +8403,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-      <c r="H35" s="8"/>
+      <c r="H35" s="9"/>
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -8287,7 +8416,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-      <c r="H36" s="8"/>
+      <c r="H36" s="9"/>
       <c r="I36" s="3"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -8304,8 +8433,8 @@
       <c r="G37" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8" t="s">
+      <c r="H37" s="9"/>
+      <c r="I37" s="9" t="s">
         <v>49</v>
       </c>
     </row>
@@ -8319,8 +8448,8 @@
       <c r="E38" s="3"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
@@ -8333,7 +8462,7 @@
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="3"/>
-      <c r="I39" s="8"/>
+      <c r="I39" s="9"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
@@ -8346,7 +8475,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="3"/>
-      <c r="I40" s="8"/>
+      <c r="I40" s="9"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
@@ -8362,10 +8491,10 @@
       <c r="G41" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H41" s="8" t="s">
+      <c r="H41" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="I41" s="8"/>
+      <c r="I41" s="9"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
@@ -8377,8 +8506,8 @@
       <c r="E42" s="3"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
@@ -8394,7 +8523,7 @@
       <c r="G43" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H43" s="8" t="s">
+      <c r="H43" s="9" t="s">
         <v>51</v>
       </c>
       <c r="I43" s="3"/>
@@ -8409,7 +8538,7 @@
       <c r="E44" s="3"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
-      <c r="H44" s="8"/>
+      <c r="H44" s="9"/>
       <c r="I44" s="3"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -8426,7 +8555,7 @@
       <c r="E45" s="3"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
-      <c r="H45" s="8"/>
+      <c r="H45" s="9"/>
       <c r="I45" s="3"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -8439,7 +8568,7 @@
       <c r="E46" s="3"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
-      <c r="H46" s="8"/>
+      <c r="H46" s="9"/>
       <c r="I46" s="3"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -8452,7 +8581,7 @@
       <c r="E47" s="3"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
-      <c r="H47" s="8"/>
+      <c r="H47" s="9"/>
       <c r="I47" s="3"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -8469,7 +8598,7 @@
       <c r="G48" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H48" s="8"/>
+      <c r="H48" s="9"/>
       <c r="I48" s="3" t="s">
         <v>9</v>
       </c>
@@ -8488,10 +8617,10 @@
       <c r="G49" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H49" s="8" t="s">
+      <c r="H49" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="I49" s="8"/>
+      <c r="I49" s="9"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
@@ -8503,8 +8632,8 @@
       <c r="E50" s="3"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
@@ -8520,16 +8649,16 @@
       <c r="G51" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H51" s="8" t="s">
+      <c r="H51" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="I51" s="8"/>
+      <c r="I51" s="9"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>596</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C52" s="3"/>
@@ -8541,29 +8670,29 @@
       <c r="G52" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H52" s="8" t="s">
+      <c r="H52" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="I52" s="8"/>
+      <c r="I52" s="9"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>591</v>
       </c>
-      <c r="B53" s="8"/>
+      <c r="B53" s="9"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>590</v>
       </c>
-      <c r="B54" s="8"/>
+      <c r="B54" s="9"/>
       <c r="C54" s="3" t="s">
         <v>17</v>
       </c>
@@ -8571,34 +8700,34 @@
       <c r="E54" s="3"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>589</v>
       </c>
-      <c r="B55" s="8"/>
+      <c r="B55" s="9"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>586</v>
       </c>
-      <c r="B56" s="8"/>
+      <c r="B56" s="9"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
@@ -8633,7 +8762,7 @@
       <c r="B59" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D59" s="3"/>
@@ -8648,7 +8777,7 @@
         <v>519</v>
       </c>
       <c r="B60" s="3"/>
-      <c r="C60" s="8"/>
+      <c r="C60" s="9"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="2"/>
@@ -8661,7 +8790,7 @@
         <v>518</v>
       </c>
       <c r="B61" s="3"/>
-      <c r="C61" s="8"/>
+      <c r="C61" s="9"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="2"/>
@@ -8712,18 +8841,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H41:I42"/>
-    <mergeCell ref="H43:H48"/>
-    <mergeCell ref="H49:I50"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="D2:E5"/>
-    <mergeCell ref="H2:I3"/>
-    <mergeCell ref="H4:I9"/>
-    <mergeCell ref="D6:E7"/>
-    <mergeCell ref="D8:E12"/>
     <mergeCell ref="B52:B56"/>
     <mergeCell ref="H52:I56"/>
     <mergeCell ref="E18:E25"/>
@@ -8739,6 +8856,18 @@
     <mergeCell ref="D13:E16"/>
     <mergeCell ref="H15:H23"/>
     <mergeCell ref="D18:D21"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H41:I42"/>
+    <mergeCell ref="H43:H48"/>
+    <mergeCell ref="H49:I50"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="D2:E5"/>
+    <mergeCell ref="H2:I3"/>
+    <mergeCell ref="H4:I9"/>
+    <mergeCell ref="D6:E7"/>
+    <mergeCell ref="D8:E12"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:E64 H2:I64">
     <cfRule type="expression" dxfId="0" priority="1">

--- a/Prophets_Kings.xlsx
+++ b/Prophets_Kings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="7644" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="7644"/>
   </bookViews>
   <sheets>
     <sheet name="Timeline" sheetId="2" r:id="rId1"/>
@@ -410,7 +410,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -422,13 +428,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -779,7 +779,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -789,9 +789,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I867"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A438" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C463" sqref="C463:C482"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5297,7 +5297,7 @@
         <v>589</v>
       </c>
       <c r="B463" s="9"/>
-      <c r="C463" s="11" t="s">
+      <c r="C463" s="13" t="s">
         <v>79</v>
       </c>
       <c r="F463" s="9"/>
@@ -5309,7 +5309,7 @@
         <v>588</v>
       </c>
       <c r="B464" s="9"/>
-      <c r="C464" s="12"/>
+      <c r="C464" s="14"/>
       <c r="F464" s="9"/>
       <c r="G464" s="9"/>
     </row>
@@ -5319,7 +5319,7 @@
         <v>587</v>
       </c>
       <c r="B465" s="9"/>
-      <c r="C465" s="12"/>
+      <c r="C465" s="14"/>
       <c r="F465" s="9"/>
       <c r="G465" s="9"/>
     </row>
@@ -5329,7 +5329,7 @@
         <v>586</v>
       </c>
       <c r="B466" s="9"/>
-      <c r="C466" s="12"/>
+      <c r="C466" s="14"/>
       <c r="F466" s="9"/>
       <c r="G466" s="9"/>
     </row>
@@ -5338,130 +5338,130 @@
         <f t="shared" si="7"/>
         <v>585</v>
       </c>
-      <c r="B467" s="14" t="s">
+      <c r="B467" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C467" s="12"/>
+      <c r="C467" s="14"/>
     </row>
     <row r="468" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <f t="shared" si="7"/>
         <v>584</v>
       </c>
-      <c r="B468" s="15"/>
-      <c r="C468" s="12"/>
+      <c r="B468" s="11"/>
+      <c r="C468" s="14"/>
     </row>
     <row r="469" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <f t="shared" si="7"/>
         <v>583</v>
       </c>
-      <c r="B469" s="15"/>
-      <c r="C469" s="12"/>
+      <c r="B469" s="11"/>
+      <c r="C469" s="14"/>
     </row>
     <row r="470" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
         <f t="shared" si="7"/>
         <v>582</v>
       </c>
-      <c r="B470" s="15"/>
-      <c r="C470" s="12"/>
+      <c r="B470" s="11"/>
+      <c r="C470" s="14"/>
     </row>
     <row r="471" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <f t="shared" si="7"/>
         <v>581</v>
       </c>
-      <c r="B471" s="15"/>
-      <c r="C471" s="12"/>
+      <c r="B471" s="11"/>
+      <c r="C471" s="14"/>
     </row>
     <row r="472" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
         <f t="shared" si="7"/>
         <v>580</v>
       </c>
-      <c r="B472" s="15"/>
-      <c r="C472" s="12"/>
+      <c r="B472" s="11"/>
+      <c r="C472" s="14"/>
     </row>
     <row r="473" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
         <f t="shared" si="7"/>
         <v>579</v>
       </c>
-      <c r="B473" s="15"/>
-      <c r="C473" s="12"/>
+      <c r="B473" s="11"/>
+      <c r="C473" s="14"/>
     </row>
     <row r="474" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
         <f t="shared" si="7"/>
         <v>578</v>
       </c>
-      <c r="B474" s="15"/>
-      <c r="C474" s="12"/>
+      <c r="B474" s="11"/>
+      <c r="C474" s="14"/>
     </row>
     <row r="475" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
         <f t="shared" si="7"/>
         <v>577</v>
       </c>
-      <c r="B475" s="15"/>
-      <c r="C475" s="12"/>
+      <c r="B475" s="11"/>
+      <c r="C475" s="14"/>
     </row>
     <row r="476" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
         <f t="shared" si="7"/>
         <v>576</v>
       </c>
-      <c r="B476" s="15"/>
-      <c r="C476" s="12"/>
+      <c r="B476" s="11"/>
+      <c r="C476" s="14"/>
     </row>
     <row r="477" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
         <f t="shared" si="7"/>
         <v>575</v>
       </c>
-      <c r="B477" s="15"/>
-      <c r="C477" s="12"/>
+      <c r="B477" s="11"/>
+      <c r="C477" s="14"/>
     </row>
     <row r="478" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
         <f t="shared" si="7"/>
         <v>574</v>
       </c>
-      <c r="B478" s="15"/>
-      <c r="C478" s="12"/>
+      <c r="B478" s="11"/>
+      <c r="C478" s="14"/>
     </row>
     <row r="479" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="1">
         <f t="shared" si="7"/>
         <v>573</v>
       </c>
-      <c r="B479" s="15"/>
-      <c r="C479" s="12"/>
+      <c r="B479" s="11"/>
+      <c r="C479" s="14"/>
     </row>
     <row r="480" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="1">
         <f t="shared" si="7"/>
         <v>572</v>
       </c>
-      <c r="B480" s="15"/>
-      <c r="C480" s="12"/>
+      <c r="B480" s="11"/>
+      <c r="C480" s="14"/>
     </row>
     <row r="481" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="1">
         <f t="shared" si="7"/>
         <v>571</v>
       </c>
-      <c r="B481" s="15"/>
-      <c r="C481" s="12"/>
+      <c r="B481" s="11"/>
+      <c r="C481" s="14"/>
     </row>
     <row r="482" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
         <f t="shared" si="7"/>
         <v>570</v>
       </c>
-      <c r="B482" s="16"/>
-      <c r="C482" s="13"/>
+      <c r="B482" s="12"/>
+      <c r="C482" s="15"/>
     </row>
     <row r="483" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
@@ -7786,35 +7786,6 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="D2:G42"/>
-    <mergeCell ref="D43:G82"/>
-    <mergeCell ref="D83:G122"/>
-    <mergeCell ref="D123:E143"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="F123:G139"/>
-    <mergeCell ref="F140:G142"/>
-    <mergeCell ref="F143:F183"/>
-    <mergeCell ref="G181:G204"/>
-    <mergeCell ref="F200:F211"/>
-    <mergeCell ref="D239:E254"/>
-    <mergeCell ref="D255:E270"/>
-    <mergeCell ref="D271:E299"/>
-    <mergeCell ref="D301:D310"/>
-    <mergeCell ref="E301:E320"/>
-    <mergeCell ref="D311:D312"/>
-    <mergeCell ref="D212:E238"/>
-    <mergeCell ref="D145:E166"/>
-    <mergeCell ref="D168:D172"/>
-    <mergeCell ref="E168:E178"/>
-    <mergeCell ref="D179:E199"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="D201:E211"/>
-    <mergeCell ref="F212:G217"/>
-    <mergeCell ref="F218:G256"/>
-    <mergeCell ref="F257:G285"/>
-    <mergeCell ref="F286:F312"/>
-    <mergeCell ref="G303:G320"/>
-    <mergeCell ref="F318:F337"/>
     <mergeCell ref="F456:G466"/>
     <mergeCell ref="B313:B341"/>
     <mergeCell ref="B456:B466"/>
@@ -7829,6 +7800,35 @@
     <mergeCell ref="D321:E329"/>
     <mergeCell ref="B467:B482"/>
     <mergeCell ref="C463:C482"/>
+    <mergeCell ref="F212:G217"/>
+    <mergeCell ref="F218:G256"/>
+    <mergeCell ref="F257:G285"/>
+    <mergeCell ref="F286:F312"/>
+    <mergeCell ref="G303:G320"/>
+    <mergeCell ref="F318:F337"/>
+    <mergeCell ref="D212:E238"/>
+    <mergeCell ref="D145:E166"/>
+    <mergeCell ref="D168:D172"/>
+    <mergeCell ref="E168:E178"/>
+    <mergeCell ref="D179:E199"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="D201:E211"/>
+    <mergeCell ref="D239:E254"/>
+    <mergeCell ref="D255:E270"/>
+    <mergeCell ref="D271:E299"/>
+    <mergeCell ref="D301:D310"/>
+    <mergeCell ref="E301:E320"/>
+    <mergeCell ref="D311:D312"/>
+    <mergeCell ref="D2:G42"/>
+    <mergeCell ref="D43:G82"/>
+    <mergeCell ref="D83:G122"/>
+    <mergeCell ref="D123:E143"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="F123:G139"/>
+    <mergeCell ref="F140:G142"/>
+    <mergeCell ref="F143:F183"/>
+    <mergeCell ref="G181:G204"/>
+    <mergeCell ref="F200:F211"/>
   </mergeCells>
   <conditionalFormatting sqref="B2">
     <cfRule type="expression" dxfId="2" priority="2">
@@ -7849,8 +7849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7873,14 +7873,14 @@
         <v>24</v>
       </c>
       <c r="C1" s="6"/>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="H1" s="10" t="s">
+      <c r="E1" s="16"/>
+      <c r="H1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="10"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
@@ -8841,6 +8841,18 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H41:I42"/>
+    <mergeCell ref="H43:H48"/>
+    <mergeCell ref="H49:I50"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="D2:E5"/>
+    <mergeCell ref="H2:I3"/>
+    <mergeCell ref="H4:I9"/>
+    <mergeCell ref="D6:E7"/>
+    <mergeCell ref="D8:E12"/>
     <mergeCell ref="B52:B56"/>
     <mergeCell ref="H52:I56"/>
     <mergeCell ref="E18:E25"/>
@@ -8856,18 +8868,6 @@
     <mergeCell ref="D13:E16"/>
     <mergeCell ref="H15:H23"/>
     <mergeCell ref="D18:D21"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H41:I42"/>
-    <mergeCell ref="H43:H48"/>
-    <mergeCell ref="H49:I50"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="D2:E5"/>
-    <mergeCell ref="H2:I3"/>
-    <mergeCell ref="H4:I9"/>
-    <mergeCell ref="D6:E7"/>
-    <mergeCell ref="D8:E12"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:E64 H2:I64">
     <cfRule type="expression" dxfId="0" priority="1">

--- a/Prophets_Kings.xlsx
+++ b/Prophets_Kings.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.currier\Documents\Currier\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="7644"/>
   </bookViews>
@@ -10,7 +15,7 @@
     <sheet name="Timeline" sheetId="2" r:id="rId1"/>
     <sheet name="Condensed" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -265,7 +270,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -779,7 +784,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -790,8 +795,8 @@
   <dimension ref="A1:I867"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:G1048576"/>
+      <pane ySplit="1" topLeftCell="A271" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="A282" sqref="A282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7786,6 +7791,35 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="D2:G42"/>
+    <mergeCell ref="D43:G82"/>
+    <mergeCell ref="D83:G122"/>
+    <mergeCell ref="D123:E143"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="F123:G139"/>
+    <mergeCell ref="F140:G142"/>
+    <mergeCell ref="F143:F183"/>
+    <mergeCell ref="G181:G204"/>
+    <mergeCell ref="F200:F211"/>
+    <mergeCell ref="D239:E254"/>
+    <mergeCell ref="D255:E270"/>
+    <mergeCell ref="D271:E299"/>
+    <mergeCell ref="D301:D310"/>
+    <mergeCell ref="E301:E320"/>
+    <mergeCell ref="D311:D312"/>
+    <mergeCell ref="D212:E238"/>
+    <mergeCell ref="D145:E166"/>
+    <mergeCell ref="D168:D172"/>
+    <mergeCell ref="E168:E178"/>
+    <mergeCell ref="D179:E199"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="D201:E211"/>
+    <mergeCell ref="F212:G217"/>
+    <mergeCell ref="F218:G256"/>
+    <mergeCell ref="F257:G285"/>
+    <mergeCell ref="F286:F312"/>
+    <mergeCell ref="G303:G320"/>
+    <mergeCell ref="F318:F337"/>
     <mergeCell ref="F456:G466"/>
     <mergeCell ref="B313:B341"/>
     <mergeCell ref="B456:B466"/>
@@ -7800,35 +7834,6 @@
     <mergeCell ref="D321:E329"/>
     <mergeCell ref="B467:B482"/>
     <mergeCell ref="C463:C482"/>
-    <mergeCell ref="F212:G217"/>
-    <mergeCell ref="F218:G256"/>
-    <mergeCell ref="F257:G285"/>
-    <mergeCell ref="F286:F312"/>
-    <mergeCell ref="G303:G320"/>
-    <mergeCell ref="F318:F337"/>
-    <mergeCell ref="D212:E238"/>
-    <mergeCell ref="D145:E166"/>
-    <mergeCell ref="D168:D172"/>
-    <mergeCell ref="E168:E178"/>
-    <mergeCell ref="D179:E199"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="D201:E211"/>
-    <mergeCell ref="D239:E254"/>
-    <mergeCell ref="D255:E270"/>
-    <mergeCell ref="D271:E299"/>
-    <mergeCell ref="D301:D310"/>
-    <mergeCell ref="E301:E320"/>
-    <mergeCell ref="D311:D312"/>
-    <mergeCell ref="D2:G42"/>
-    <mergeCell ref="D43:G82"/>
-    <mergeCell ref="D83:G122"/>
-    <mergeCell ref="D123:E143"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="F123:G139"/>
-    <mergeCell ref="F140:G142"/>
-    <mergeCell ref="F143:F183"/>
-    <mergeCell ref="G181:G204"/>
-    <mergeCell ref="F200:F211"/>
   </mergeCells>
   <conditionalFormatting sqref="B2">
     <cfRule type="expression" dxfId="2" priority="2">
@@ -8841,18 +8846,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H41:I42"/>
-    <mergeCell ref="H43:H48"/>
-    <mergeCell ref="H49:I50"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="D2:E5"/>
-    <mergeCell ref="H2:I3"/>
-    <mergeCell ref="H4:I9"/>
-    <mergeCell ref="D6:E7"/>
-    <mergeCell ref="D8:E12"/>
     <mergeCell ref="B52:B56"/>
     <mergeCell ref="H52:I56"/>
     <mergeCell ref="E18:E25"/>
@@ -8868,6 +8861,18 @@
     <mergeCell ref="D13:E16"/>
     <mergeCell ref="H15:H23"/>
     <mergeCell ref="D18:D21"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H41:I42"/>
+    <mergeCell ref="H43:H48"/>
+    <mergeCell ref="H49:I50"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="D2:E5"/>
+    <mergeCell ref="H2:I3"/>
+    <mergeCell ref="H4:I9"/>
+    <mergeCell ref="D6:E7"/>
+    <mergeCell ref="D8:E12"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:E64 H2:I64">
     <cfRule type="expression" dxfId="0" priority="1">
